--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BB1A82-9796-4B42-B364-EB5EEDCD3EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D6B6B4-1C92-FA47-9710-D4FBEE21A7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -150,24 +147,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Macro14"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,7 +449,7 @@
   <dimension ref="A1:JD13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D6B6B4-1C92-FA47-9710-D4FBEE21A7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E89050-F0F4-C34D-9254-95B4F8F71D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -446,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:JD13"/>
+  <dimension ref="A1:JJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="IY1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:264" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,8 +1247,26 @@
       <c r="JD1" s="1">
         <v>44100</v>
       </c>
+      <c r="JE1" s="1">
+        <v>44101</v>
+      </c>
+      <c r="JF1" s="1">
+        <v>44102</v>
+      </c>
+      <c r="JG1" s="1">
+        <v>44103</v>
+      </c>
+      <c r="JH1" s="1">
+        <v>44104</v>
+      </c>
+      <c r="JI1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="JJ1" s="1">
+        <v>44106</v>
+      </c>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2035,8 +2053,26 @@
       <c r="JD2">
         <v>63.75</v>
       </c>
+      <c r="JE2">
+        <v>49.82</v>
+      </c>
+      <c r="JF2">
+        <v>50.37</v>
+      </c>
+      <c r="JG2">
+        <v>47.02</v>
+      </c>
+      <c r="JH2">
+        <v>50.69</v>
+      </c>
+      <c r="JI2">
+        <v>54.46</v>
+      </c>
+      <c r="JJ2">
+        <v>59.66</v>
+      </c>
     </row>
-    <row r="3" spans="1:264" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2820,8 +2856,26 @@
       <c r="JD3">
         <v>35.94</v>
       </c>
+      <c r="JE3">
+        <v>31.21</v>
+      </c>
+      <c r="JF3">
+        <v>32.83</v>
+      </c>
+      <c r="JG3">
+        <v>34.15</v>
+      </c>
+      <c r="JH3">
+        <v>34.56</v>
+      </c>
+      <c r="JI3">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="JJ3">
+        <v>39.119999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3611,8 +3665,26 @@
       <c r="JD4">
         <v>55.11</v>
       </c>
+      <c r="JE4">
+        <v>49.98</v>
+      </c>
+      <c r="JF4">
+        <v>59.98</v>
+      </c>
+      <c r="JG4">
+        <v>57.08</v>
+      </c>
+      <c r="JH4">
+        <v>60.6</v>
+      </c>
+      <c r="JI4">
+        <v>56.86</v>
+      </c>
+      <c r="JJ4">
+        <v>58.16</v>
+      </c>
     </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4396,8 +4468,26 @@
       <c r="JD5">
         <v>62.74</v>
       </c>
+      <c r="JE5">
+        <v>54.07</v>
+      </c>
+      <c r="JF5">
+        <v>63.13</v>
+      </c>
+      <c r="JG5">
+        <v>58.84</v>
+      </c>
+      <c r="JH5">
+        <v>61.35</v>
+      </c>
+      <c r="JI5">
+        <v>63.08</v>
+      </c>
+      <c r="JJ5">
+        <v>64.650000000000006</v>
+      </c>
     </row>
-    <row r="13" spans="1:264" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
         <v>19</v>
       </c>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E89050-F0F4-C34D-9254-95B4F8F71D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071E6D25-4E2A-0841-823D-E0A740E04AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>geo_type</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Arizona</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -446,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:JJ13"/>
+  <dimension ref="A1:JL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IY1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1262,14 @@
       <c r="JJ1" s="1">
         <v>44106</v>
       </c>
+      <c r="JK1" s="1">
+        <v>44107</v>
+      </c>
+      <c r="JL1" s="1">
+        <v>44108</v>
+      </c>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2071,8 +2074,14 @@
       <c r="JJ2">
         <v>59.66</v>
       </c>
+      <c r="JK2">
+        <v>63.07</v>
+      </c>
+      <c r="JL2">
+        <v>48.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2874,8 +2883,14 @@
       <c r="JJ3">
         <v>39.119999999999997</v>
       </c>
+      <c r="JK3">
+        <v>36.44</v>
+      </c>
+      <c r="JL3">
+        <v>34.090000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3683,8 +3698,14 @@
       <c r="JJ4">
         <v>58.16</v>
       </c>
+      <c r="JK4">
+        <v>56.12</v>
+      </c>
+      <c r="JL4">
+        <v>50.31</v>
+      </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4486,10 +4507,11 @@
       <c r="JJ5">
         <v>64.650000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>19</v>
+      <c r="JK5">
+        <v>61.06</v>
+      </c>
+      <c r="JL5">
+        <v>49.46</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071E6D25-4E2A-0841-823D-E0A740E04AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2B701-775C-0549-A2A1-3A63DF517DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -443,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:JL5"/>
+  <dimension ref="A1:JO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="JD1" workbookViewId="0">
+      <selection activeCell="JU24" sqref="JU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:275" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,8 +1268,17 @@
       <c r="JL1" s="1">
         <v>44108</v>
       </c>
+      <c r="JM1" s="1">
+        <v>44109</v>
+      </c>
+      <c r="JN1" s="1">
+        <v>44110</v>
+      </c>
+      <c r="JO1" s="1">
+        <v>44111</v>
+      </c>
     </row>
-    <row r="2" spans="1:272" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:275" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2080,8 +2089,17 @@
       <c r="JL2">
         <v>48.4</v>
       </c>
+      <c r="JM2">
+        <v>49.63</v>
+      </c>
+      <c r="JN2">
+        <v>50.57</v>
+      </c>
+      <c r="JO2">
+        <v>50.36</v>
+      </c>
     </row>
-    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:275" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2889,8 +2907,17 @@
       <c r="JL3">
         <v>34.090000000000003</v>
       </c>
+      <c r="JM3">
+        <v>34.83</v>
+      </c>
+      <c r="JN3">
+        <v>32.64</v>
+      </c>
+      <c r="JO3">
+        <v>38.880000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:275" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3704,8 +3731,17 @@
       <c r="JL4">
         <v>50.31</v>
       </c>
+      <c r="JM4">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="JN4">
+        <v>59.62</v>
+      </c>
+      <c r="JO4">
+        <v>60.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:275" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4512,6 +4548,15 @@
       </c>
       <c r="JL5">
         <v>49.46</v>
+      </c>
+      <c r="JM5">
+        <v>59.69</v>
+      </c>
+      <c r="JN5">
+        <v>59.14</v>
+      </c>
+      <c r="JO5">
+        <v>62.59</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2B701-775C-0549-A2A1-3A63DF517DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711302AE-C2CA-D042-9D11-FC71149DF88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -443,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:JO5"/>
+  <dimension ref="A1:JR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JD1" workbookViewId="0">
-      <selection activeCell="JU24" sqref="JU24"/>
+    <sheetView tabSelected="1" topLeftCell="JG1" workbookViewId="0">
+      <selection activeCell="JT27" sqref="JT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:278" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1277,17 @@
       <c r="JO1" s="1">
         <v>44111</v>
       </c>
+      <c r="JP1" s="1">
+        <v>44112</v>
+      </c>
+      <c r="JQ1" s="1">
+        <v>44113</v>
+      </c>
+      <c r="JR1" s="1">
+        <v>44114</v>
+      </c>
     </row>
-    <row r="2" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:278" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2098,8 +2107,17 @@
       <c r="JO2">
         <v>50.36</v>
       </c>
+      <c r="JP2">
+        <v>53.56</v>
+      </c>
+      <c r="JQ2">
+        <v>61.5</v>
+      </c>
+      <c r="JR2">
+        <v>65.53</v>
+      </c>
     </row>
-    <row r="3" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:278" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2916,8 +2934,17 @@
       <c r="JO3">
         <v>38.880000000000003</v>
       </c>
+      <c r="JP3">
+        <v>35.01</v>
+      </c>
+      <c r="JQ3">
+        <v>39.29</v>
+      </c>
+      <c r="JR3">
+        <v>36.33</v>
+      </c>
     </row>
-    <row r="4" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:278" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3740,8 +3767,17 @@
       <c r="JO4">
         <v>60.75</v>
       </c>
+      <c r="JP4">
+        <v>59.49</v>
+      </c>
+      <c r="JQ4">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="JR4">
+        <v>60.44</v>
+      </c>
     </row>
-    <row r="5" spans="1:275" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:278" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4557,6 +4593,15 @@
       </c>
       <c r="JO5">
         <v>62.59</v>
+      </c>
+      <c r="JP5">
+        <v>61.72</v>
+      </c>
+      <c r="JQ5">
+        <v>65.56</v>
+      </c>
+      <c r="JR5">
+        <v>61.4</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711302AE-C2CA-D042-9D11-FC71149DF88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E7127F-5C1D-B544-917A-D97CD5855A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
+    <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -443,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:JR5"/>
+  <dimension ref="A1:JU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JG1" workbookViewId="0">
-      <selection activeCell="JT27" sqref="JT27"/>
+    <sheetView tabSelected="1" topLeftCell="JJ1" workbookViewId="0">
+      <selection activeCell="JZ22" sqref="JZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:278" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,8 +1286,17 @@
       <c r="JR1" s="1">
         <v>44114</v>
       </c>
+      <c r="JS1" s="1">
+        <v>44115</v>
+      </c>
+      <c r="JT1" s="1">
+        <v>44116</v>
+      </c>
+      <c r="JU1" s="1">
+        <v>44117</v>
+      </c>
     </row>
-    <row r="2" spans="1:278" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2116,8 +2125,17 @@
       <c r="JR2">
         <v>65.53</v>
       </c>
+      <c r="JS2">
+        <v>48.49</v>
+      </c>
+      <c r="JT2">
+        <v>42.43</v>
+      </c>
+      <c r="JU2">
+        <v>47.13</v>
+      </c>
     </row>
-    <row r="3" spans="1:278" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2943,8 +2961,17 @@
       <c r="JR3">
         <v>36.33</v>
       </c>
+      <c r="JS3">
+        <v>35.44</v>
+      </c>
+      <c r="JT3">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="JU3">
+        <v>36.409999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:278" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3776,8 +3803,17 @@
       <c r="JR4">
         <v>60.44</v>
       </c>
+      <c r="JS4">
+        <v>46.18</v>
+      </c>
+      <c r="JT4">
+        <v>57.06</v>
+      </c>
+      <c r="JU4">
+        <v>57.56</v>
+      </c>
     </row>
-    <row r="5" spans="1:278" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:281" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4602,6 +4638,15 @@
       </c>
       <c r="JR5">
         <v>61.4</v>
+      </c>
+      <c r="JS5">
+        <v>50.65</v>
+      </c>
+      <c r="JT5">
+        <v>61.31</v>
+      </c>
+      <c r="JU5">
+        <v>63.05</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E7127F-5C1D-B544-917A-D97CD5855A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CED9AC-0BDD-1D41-B60E-C604116674A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -443,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:JU5"/>
+  <dimension ref="A1:JZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JJ1" workbookViewId="0">
-      <selection activeCell="JZ22" sqref="JZ22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:281" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1295,23 @@
       <c r="JU1" s="1">
         <v>44117</v>
       </c>
+      <c r="JV1" s="1">
+        <v>44118</v>
+      </c>
+      <c r="JW1" s="1">
+        <v>44119</v>
+      </c>
+      <c r="JX1" s="1">
+        <v>44120</v>
+      </c>
+      <c r="JY1" s="1">
+        <v>44121</v>
+      </c>
+      <c r="JZ1" s="1">
+        <v>44122</v>
+      </c>
     </row>
-    <row r="2" spans="1:281" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2134,8 +2149,23 @@
       <c r="JU2">
         <v>47.13</v>
       </c>
+      <c r="JV2">
+        <v>52.71</v>
+      </c>
+      <c r="JW2">
+        <v>54.51</v>
+      </c>
+      <c r="JX2">
+        <v>51.44</v>
+      </c>
+      <c r="JY2">
+        <v>65.09</v>
+      </c>
+      <c r="JZ2">
+        <v>50.49</v>
+      </c>
     </row>
-    <row r="3" spans="1:281" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2970,8 +3000,23 @@
       <c r="JU3">
         <v>36.409999999999997</v>
       </c>
+      <c r="JV3">
+        <v>37.35</v>
+      </c>
+      <c r="JW3">
+        <v>37.83</v>
+      </c>
+      <c r="JX3">
+        <v>42.93</v>
+      </c>
+      <c r="JY3">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="JZ3">
+        <v>35.450000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:281" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3812,8 +3857,23 @@
       <c r="JU4">
         <v>57.56</v>
       </c>
+      <c r="JV4">
+        <v>60.84</v>
+      </c>
+      <c r="JW4">
+        <v>65.83</v>
+      </c>
+      <c r="JX4">
+        <v>61.49</v>
+      </c>
+      <c r="JY4">
+        <v>66.89</v>
+      </c>
+      <c r="JZ4">
+        <v>52.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:281" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:286" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4647,6 +4707,21 @@
       </c>
       <c r="JU5">
         <v>63.05</v>
+      </c>
+      <c r="JV5">
+        <v>63.31</v>
+      </c>
+      <c r="JW5">
+        <v>61.75</v>
+      </c>
+      <c r="JX5">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="JY5">
+        <v>63.15</v>
+      </c>
+      <c r="JZ5">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CED9AC-0BDD-1D41-B60E-C604116674A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C111BD6E-184E-634B-AE9A-85FA098BC86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:JZ5"/>
+  <dimension ref="A1:KM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
@@ -451,7 +451,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1310,47 @@
       <c r="JZ1" s="1">
         <v>44122</v>
       </c>
+      <c r="KA1" s="1">
+        <v>44123</v>
+      </c>
+      <c r="KB1" s="1">
+        <v>44124</v>
+      </c>
+      <c r="KC1" s="1">
+        <v>44125</v>
+      </c>
+      <c r="KD1" s="1">
+        <v>44126</v>
+      </c>
+      <c r="KE1" s="1">
+        <v>44127</v>
+      </c>
+      <c r="KF1" s="1">
+        <v>44128</v>
+      </c>
+      <c r="KG1" s="1">
+        <v>44129</v>
+      </c>
+      <c r="KH1" s="1">
+        <v>44130</v>
+      </c>
+      <c r="KI1" s="1">
+        <v>44131</v>
+      </c>
+      <c r="KJ1" s="1">
+        <v>44132</v>
+      </c>
+      <c r="KK1" s="1">
+        <v>44133</v>
+      </c>
+      <c r="KL1" s="1">
+        <v>44134</v>
+      </c>
+      <c r="KM1" s="1">
+        <v>44135</v>
+      </c>
     </row>
-    <row r="2" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2164,8 +2203,47 @@
       <c r="JZ2">
         <v>50.49</v>
       </c>
+      <c r="KA2">
+        <v>50.52</v>
+      </c>
+      <c r="KB2">
+        <v>50.32</v>
+      </c>
+      <c r="KC2">
+        <v>51.62</v>
+      </c>
+      <c r="KD2">
+        <v>53.26</v>
+      </c>
+      <c r="KE2">
+        <v>62.07</v>
+      </c>
+      <c r="KF2">
+        <v>64.22</v>
+      </c>
+      <c r="KG2">
+        <v>47.94</v>
+      </c>
+      <c r="KH2">
+        <v>48.25</v>
+      </c>
+      <c r="KI2">
+        <v>50.23</v>
+      </c>
+      <c r="KJ2">
+        <v>49.65</v>
+      </c>
+      <c r="KK2">
+        <v>46.44</v>
+      </c>
+      <c r="KL2">
+        <v>55.89</v>
+      </c>
+      <c r="KM2">
+        <v>62.81</v>
+      </c>
     </row>
-    <row r="3" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3015,8 +3093,47 @@
       <c r="JZ3">
         <v>35.450000000000003</v>
       </c>
+      <c r="KA3">
+        <v>36.25</v>
+      </c>
+      <c r="KB3">
+        <v>37.58</v>
+      </c>
+      <c r="KC3">
+        <v>36.15</v>
+      </c>
+      <c r="KD3">
+        <v>36.49</v>
+      </c>
+      <c r="KE3">
+        <v>41.28</v>
+      </c>
+      <c r="KF3">
+        <v>37.78</v>
+      </c>
+      <c r="KG3">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="KH3">
+        <v>36.39</v>
+      </c>
+      <c r="KI3">
+        <v>33.69</v>
+      </c>
+      <c r="KJ3">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="KK3">
+        <v>36.46</v>
+      </c>
+      <c r="KL3">
+        <v>42.93</v>
+      </c>
+      <c r="KM3">
+        <v>37.49</v>
+      </c>
     </row>
-    <row r="4" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3872,8 +3989,47 @@
       <c r="JZ4">
         <v>52.7</v>
       </c>
+      <c r="KA4">
+        <v>61.54</v>
+      </c>
+      <c r="KB4">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="KC4">
+        <v>63.83</v>
+      </c>
+      <c r="KD4">
+        <v>61.72</v>
+      </c>
+      <c r="KE4">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="KF4">
+        <v>56.97</v>
+      </c>
+      <c r="KG4">
+        <v>48.29</v>
+      </c>
+      <c r="KH4">
+        <v>68.14</v>
+      </c>
+      <c r="KI4">
+        <v>62.74</v>
+      </c>
+      <c r="KJ4">
+        <v>65.06</v>
+      </c>
+      <c r="KK4">
+        <v>54.05</v>
+      </c>
+      <c r="KL4">
+        <v>64.17</v>
+      </c>
+      <c r="KM4">
+        <v>58.16</v>
+      </c>
     </row>
-    <row r="5" spans="1:286" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4722,6 +4878,45 @@
       </c>
       <c r="JZ5">
         <v>52</v>
+      </c>
+      <c r="KA5">
+        <v>63.8</v>
+      </c>
+      <c r="KB5">
+        <v>61.37</v>
+      </c>
+      <c r="KC5">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="KD5">
+        <v>61.66</v>
+      </c>
+      <c r="KE5">
+        <v>66.86</v>
+      </c>
+      <c r="KF5">
+        <v>63.98</v>
+      </c>
+      <c r="KG5">
+        <v>51.12</v>
+      </c>
+      <c r="KH5">
+        <v>60.42</v>
+      </c>
+      <c r="KI5">
+        <v>60.4</v>
+      </c>
+      <c r="KJ5">
+        <v>58.89</v>
+      </c>
+      <c r="KK5">
+        <v>64.03</v>
+      </c>
+      <c r="KL5">
+        <v>69.11</v>
+      </c>
+      <c r="KM5">
+        <v>64.31</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C111BD6E-184E-634B-AE9A-85FA098BC86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C3DF1-5C15-0A4D-93E7-61933DBAA42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -443,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:KM5"/>
+  <dimension ref="A1:KW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="KL1" workbookViewId="0">
+      <selection activeCell="KW1" sqref="KW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:309" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1349,38 @@
       <c r="KM1" s="1">
         <v>44135</v>
       </c>
+      <c r="KN1" s="1">
+        <v>44136</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>44137</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>44138</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>44139</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>44140</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>44141</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>44142</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>44143</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>44144</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>44145</v>
+      </c>
     </row>
-    <row r="2" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:309" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2242,8 +2272,38 @@
       <c r="KM2">
         <v>62.81</v>
       </c>
+      <c r="KN2">
+        <v>43.1</v>
+      </c>
+      <c r="KO2">
+        <v>47.29</v>
+      </c>
+      <c r="KP2">
+        <v>43.62</v>
+      </c>
+      <c r="KQ2">
+        <v>44.2</v>
+      </c>
+      <c r="KR2">
+        <v>50.18</v>
+      </c>
+      <c r="KS2">
+        <v>58.54</v>
+      </c>
+      <c r="KT2">
+        <v>62.59</v>
+      </c>
+      <c r="KU2">
+        <v>50.02</v>
+      </c>
+      <c r="KV2">
+        <v>49.65</v>
+      </c>
+      <c r="KW2">
+        <v>51.29</v>
+      </c>
     </row>
-    <row r="3" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:309" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3132,8 +3192,38 @@
       <c r="KM3">
         <v>37.49</v>
       </c>
+      <c r="KN3">
+        <v>33.06</v>
+      </c>
+      <c r="KO3">
+        <v>35.01</v>
+      </c>
+      <c r="KP3">
+        <v>34.32</v>
+      </c>
+      <c r="KQ3">
+        <v>34.33</v>
+      </c>
+      <c r="KR3">
+        <v>35.78</v>
+      </c>
+      <c r="KS3">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="KT3">
+        <v>34.67</v>
+      </c>
+      <c r="KU3">
+        <v>31.31</v>
+      </c>
+      <c r="KV3">
+        <v>34.04</v>
+      </c>
+      <c r="KW3">
+        <v>32.43</v>
+      </c>
     </row>
-    <row r="4" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:309" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4028,8 +4118,38 @@
       <c r="KM4">
         <v>58.16</v>
       </c>
+      <c r="KN4">
+        <v>48.78</v>
+      </c>
+      <c r="KO4">
+        <v>64.13</v>
+      </c>
+      <c r="KP4">
+        <v>58.52</v>
+      </c>
+      <c r="KQ4">
+        <v>58.93</v>
+      </c>
+      <c r="KR4">
+        <v>59.67</v>
+      </c>
+      <c r="KS4">
+        <v>61.96</v>
+      </c>
+      <c r="KT4">
+        <v>60.73</v>
+      </c>
+      <c r="KU4">
+        <v>52.66</v>
+      </c>
+      <c r="KV4">
+        <v>67.3</v>
+      </c>
+      <c r="KW4">
+        <v>60.78</v>
+      </c>
     </row>
-    <row r="5" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:309" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4917,6 +5037,36 @@
       </c>
       <c r="KM5">
         <v>64.31</v>
+      </c>
+      <c r="KN5">
+        <v>52.72</v>
+      </c>
+      <c r="KO5">
+        <v>62.59</v>
+      </c>
+      <c r="KP5">
+        <v>61.18</v>
+      </c>
+      <c r="KQ5">
+        <v>59.31</v>
+      </c>
+      <c r="KR5">
+        <v>59.72</v>
+      </c>
+      <c r="KS5">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="KT5">
+        <v>60.38</v>
+      </c>
+      <c r="KU5">
+        <v>49.36</v>
+      </c>
+      <c r="KV5">
+        <v>60.69</v>
+      </c>
+      <c r="KW5">
+        <v>61.92</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1C3DF1-5C15-0A4D-93E7-61933DBAA42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F8718-DE55-6549-B358-F758082B7725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>geo_type</t>
   </si>
@@ -78,19 +78,16 @@
     <t>California</t>
   </si>
   <si>
-    <t>county</t>
-  </si>
-  <si>
-    <t>Baltimore City</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
     <t>Arizona</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -443,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:KW5"/>
+  <dimension ref="A1:KM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KL1" workbookViewId="0">
-      <selection activeCell="KW1" sqref="KW1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:309" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,52 +1346,19 @@
       <c r="KM1" s="1">
         <v>44135</v>
       </c>
-      <c r="KN1" s="1">
-        <v>44136</v>
-      </c>
-      <c r="KO1" s="1">
-        <v>44137</v>
-      </c>
-      <c r="KP1" s="1">
-        <v>44138</v>
-      </c>
-      <c r="KQ1" s="1">
-        <v>44139</v>
-      </c>
-      <c r="KR1" s="1">
-        <v>44140</v>
-      </c>
-      <c r="KS1" s="1">
-        <v>44141</v>
-      </c>
-      <c r="KT1" s="1">
-        <v>44142</v>
-      </c>
-      <c r="KU1" s="1">
-        <v>44143</v>
-      </c>
-      <c r="KV1" s="1">
-        <v>44144</v>
-      </c>
-      <c r="KW1" s="1">
-        <v>44145</v>
-      </c>
     </row>
-    <row r="2" spans="1:309" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -1403,918 +1367,891 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>92.66</v>
+        <v>100.41</v>
       </c>
       <c r="I2">
-        <v>95.29</v>
+        <v>102.62</v>
       </c>
       <c r="J2">
-        <v>96.42</v>
+        <v>95.6</v>
       </c>
       <c r="K2">
-        <v>107.5</v>
+        <v>106.14</v>
       </c>
       <c r="L2">
-        <v>101.22</v>
+        <v>99.5</v>
       </c>
       <c r="M2">
-        <v>93.41</v>
+        <v>78.239999999999995</v>
       </c>
       <c r="N2">
-        <v>87.91</v>
+        <v>98.65</v>
       </c>
       <c r="O2">
-        <v>94.76</v>
+        <v>104.63</v>
       </c>
       <c r="P2">
-        <v>98.07</v>
+        <v>95.68</v>
       </c>
       <c r="Q2">
-        <v>101.52</v>
+        <v>102.85</v>
       </c>
       <c r="R2">
-        <v>114.06</v>
+        <v>107.98</v>
       </c>
       <c r="S2">
-        <v>105.16</v>
+        <v>100.91</v>
       </c>
       <c r="T2">
-        <v>85.92</v>
+        <v>73.23</v>
       </c>
       <c r="U2">
-        <v>91.57</v>
+        <v>102.31</v>
       </c>
       <c r="V2">
-        <v>91.79</v>
+        <v>98.15</v>
       </c>
       <c r="W2">
-        <v>93.18</v>
+        <v>95.98</v>
       </c>
       <c r="X2">
-        <v>98.02</v>
+        <v>98.05</v>
       </c>
       <c r="Y2">
-        <v>110.46</v>
+        <v>107.68</v>
       </c>
       <c r="Z2">
-        <v>109.24</v>
+        <v>101.39</v>
       </c>
       <c r="AA2">
-        <v>83.39</v>
+        <v>78.61</v>
       </c>
       <c r="AB2">
-        <v>91.31</v>
+        <v>100.47</v>
       </c>
       <c r="AC2">
-        <v>92.84</v>
+        <v>95.73</v>
       </c>
       <c r="AD2">
-        <v>93.88</v>
+        <v>85.93</v>
       </c>
       <c r="AE2">
-        <v>97.57</v>
+        <v>98.46</v>
       </c>
       <c r="AF2">
-        <v>111.75</v>
+        <v>108.18</v>
       </c>
       <c r="AG2">
-        <v>117.34</v>
+        <v>100.43</v>
       </c>
       <c r="AH2">
-        <v>89.88</v>
+        <v>75.61</v>
       </c>
       <c r="AI2">
-        <v>91.7</v>
+        <v>101.35</v>
       </c>
       <c r="AJ2">
-        <v>95.7</v>
+        <v>94.1</v>
       </c>
       <c r="AK2">
-        <v>97.68</v>
+        <v>98.24</v>
       </c>
       <c r="AL2">
-        <v>103.34</v>
+        <v>103.99</v>
       </c>
       <c r="AM2">
-        <v>118.61</v>
+        <v>114.08</v>
       </c>
       <c r="AN2">
-        <v>113.45</v>
+        <v>102.23</v>
       </c>
       <c r="AO2">
-        <v>95.82</v>
+        <v>86.55</v>
       </c>
       <c r="AP2">
-        <v>100.99</v>
+        <v>105.27</v>
       </c>
       <c r="AQ2">
-        <v>99.87</v>
+        <v>102.49</v>
       </c>
       <c r="AR2">
-        <v>102.57</v>
+        <v>101.15</v>
       </c>
       <c r="AS2">
-        <v>104.23</v>
+        <v>102.61</v>
       </c>
       <c r="AT2">
-        <v>115.72</v>
+        <v>113.77</v>
       </c>
       <c r="AU2">
-        <v>117.34</v>
+        <v>102.22</v>
       </c>
       <c r="AV2">
-        <v>87.97</v>
+        <v>78.27</v>
       </c>
       <c r="AW2">
-        <v>91.49</v>
+        <v>105.48</v>
       </c>
       <c r="AX2">
-        <v>92.14</v>
+        <v>103.51</v>
       </c>
       <c r="AY2">
-        <v>94.63</v>
+        <v>101.02</v>
       </c>
       <c r="AZ2">
-        <v>97.48</v>
+        <v>106.18</v>
       </c>
       <c r="BA2">
-        <v>114.48</v>
+        <v>118.37</v>
       </c>
       <c r="BB2">
-        <v>115.21</v>
+        <v>114.34</v>
       </c>
       <c r="BC2">
-        <v>87.01</v>
+        <v>85.51</v>
       </c>
       <c r="BD2">
-        <v>92.87</v>
+        <v>106.36</v>
       </c>
       <c r="BE2">
-        <v>93.89</v>
+        <v>102.93</v>
       </c>
       <c r="BF2">
-        <v>98.65</v>
+        <v>96.44</v>
       </c>
       <c r="BG2">
-        <v>100.54</v>
+        <v>109.51</v>
       </c>
       <c r="BH2">
-        <v>108.43</v>
+        <v>117.82</v>
       </c>
       <c r="BI2">
-        <v>114.48</v>
+        <v>109.09</v>
       </c>
       <c r="BJ2">
-        <v>86.13</v>
+        <v>83.75</v>
       </c>
       <c r="BK2">
-        <v>92.2</v>
+        <v>100.42</v>
       </c>
       <c r="BL2">
-        <v>85.1</v>
+        <v>108.45</v>
       </c>
       <c r="BM2">
-        <v>81.650000000000006</v>
+        <v>107.74</v>
       </c>
       <c r="BN2">
-        <v>69.099999999999994</v>
+        <v>96.98</v>
       </c>
       <c r="BO2">
-        <v>66.28</v>
+        <v>88.53</v>
       </c>
       <c r="BP2">
-        <v>58.17</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="BQ2">
-        <v>40.65</v>
+        <v>59.28</v>
       </c>
       <c r="BR2">
-        <v>36.57</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="BS2">
-        <v>30.15</v>
+        <v>61.86</v>
       </c>
       <c r="BT2">
-        <v>27.35</v>
+        <v>60.27</v>
       </c>
       <c r="BU2">
-        <v>25.2</v>
+        <v>59.21</v>
       </c>
       <c r="BV2">
-        <v>24.13</v>
+        <v>55.47</v>
       </c>
       <c r="BW2">
-        <v>18.739999999999998</v>
+        <v>46.78</v>
       </c>
       <c r="BX2">
-        <v>14.97</v>
+        <v>38.32</v>
       </c>
       <c r="BY2">
-        <v>15.46</v>
+        <v>49.36</v>
       </c>
       <c r="BZ2">
-        <v>16.52</v>
+        <v>46.34</v>
       </c>
       <c r="CA2">
-        <v>15.32</v>
+        <v>43.65</v>
       </c>
       <c r="CB2">
-        <v>16.05</v>
+        <v>44.34</v>
       </c>
       <c r="CC2">
-        <v>17.14</v>
+        <v>48.22</v>
       </c>
       <c r="CD2">
-        <v>13.4</v>
+        <v>42.16</v>
       </c>
       <c r="CE2">
-        <v>12.84</v>
+        <v>36.08</v>
       </c>
       <c r="CF2">
-        <v>15.43</v>
+        <v>40.380000000000003</v>
       </c>
       <c r="CG2">
-        <v>14.55</v>
+        <v>43.53</v>
       </c>
       <c r="CH2">
-        <v>14.39</v>
+        <v>42.61</v>
       </c>
       <c r="CI2">
-        <v>13.84</v>
+        <v>39.17</v>
       </c>
       <c r="CJ2">
-        <v>13.76</v>
+        <v>37.85</v>
       </c>
       <c r="CK2">
-        <v>12.71</v>
+        <v>34.43</v>
       </c>
       <c r="CL2">
-        <v>12.03</v>
+        <v>32.43</v>
       </c>
       <c r="CM2">
-        <v>14.26</v>
+        <v>42.11</v>
       </c>
       <c r="CN2">
-        <v>13.54</v>
+        <v>43.26</v>
       </c>
       <c r="CO2">
-        <v>13.32</v>
+        <v>44.88</v>
       </c>
       <c r="CP2">
-        <v>12.73</v>
+        <v>41.76</v>
       </c>
       <c r="CQ2">
-        <v>13.37</v>
+        <v>43.86</v>
       </c>
       <c r="CR2">
-        <v>12.52</v>
+        <v>37.58</v>
       </c>
       <c r="CS2">
-        <v>11.25</v>
+        <v>33.31</v>
       </c>
       <c r="CT2">
-        <v>12.75</v>
+        <v>40.26</v>
       </c>
       <c r="CU2">
-        <v>14.13</v>
+        <v>40.33</v>
       </c>
       <c r="CV2">
-        <v>13.42</v>
+        <v>41.55</v>
       </c>
       <c r="CW2">
-        <v>13.34</v>
+        <v>41.21</v>
       </c>
       <c r="CX2">
-        <v>13.46</v>
+        <v>42.56</v>
       </c>
       <c r="CY2">
-        <v>12.1</v>
+        <v>40.69</v>
       </c>
       <c r="CZ2">
-        <v>12.61</v>
+        <v>36.36</v>
       </c>
       <c r="DA2">
-        <v>14.58</v>
+        <v>46.18</v>
       </c>
       <c r="DB2">
-        <v>13.49</v>
+        <v>45.07</v>
       </c>
       <c r="DC2">
-        <v>14.06</v>
+        <v>42.97</v>
       </c>
       <c r="DD2">
-        <v>14.03</v>
+        <v>46.5</v>
       </c>
       <c r="DE2">
-        <v>13.83</v>
+        <v>48.35</v>
       </c>
       <c r="DF2">
-        <v>14.08</v>
+        <v>43.57</v>
       </c>
       <c r="DG2">
-        <v>12.19</v>
+        <v>38.75</v>
       </c>
       <c r="DH2">
-        <v>14.98</v>
+        <v>44.68</v>
       </c>
       <c r="DI2">
-        <v>16.010000000000002</v>
+        <v>48.26</v>
       </c>
       <c r="DJ2">
-        <v>15.39</v>
+        <v>47.16</v>
       </c>
       <c r="DK2">
-        <v>14.9</v>
+        <v>47.56</v>
       </c>
       <c r="DL2">
-        <v>16.510000000000002</v>
+        <v>54.18</v>
       </c>
       <c r="DM2">
-        <v>16.37</v>
+        <v>48.2</v>
       </c>
       <c r="DN2">
-        <v>15.64</v>
+        <v>44.54</v>
       </c>
       <c r="DO2">
-        <v>18.02</v>
+        <v>53.23</v>
       </c>
       <c r="DP2">
-        <v>17.96</v>
+        <v>52.16</v>
       </c>
       <c r="DQ2">
-        <v>17.03</v>
+        <v>53.32</v>
       </c>
       <c r="DR2">
-        <v>17.64</v>
+        <v>51.89</v>
       </c>
       <c r="DS2">
-        <v>16.14</v>
+        <v>54.5</v>
       </c>
       <c r="DT2">
-        <v>15.41</v>
+        <v>51.87</v>
       </c>
       <c r="DU2">
-        <v>14.63</v>
+        <v>43.78</v>
       </c>
       <c r="DX2">
-        <v>18.45</v>
+        <v>55.99</v>
       </c>
       <c r="DY2">
-        <v>18.54</v>
+        <v>57.43</v>
       </c>
       <c r="DZ2">
-        <v>20.14</v>
+        <v>58.46</v>
       </c>
       <c r="EA2">
-        <v>19.170000000000002</v>
+        <v>47.17</v>
       </c>
       <c r="EB2">
-        <v>17.420000000000002</v>
+        <v>49.87</v>
       </c>
       <c r="EC2">
-        <v>20.05</v>
+        <v>58.73</v>
       </c>
       <c r="ED2">
-        <v>20.02</v>
+        <v>60.5</v>
       </c>
       <c r="EE2">
-        <v>20.18</v>
+        <v>59.29</v>
       </c>
       <c r="EF2">
-        <v>20.81</v>
+        <v>57.27</v>
       </c>
       <c r="EG2">
-        <v>21.19</v>
+        <v>65.39</v>
       </c>
       <c r="EH2">
-        <v>18.05</v>
+        <v>60.08</v>
       </c>
       <c r="EI2">
-        <v>19.399999999999999</v>
+        <v>48.76</v>
       </c>
       <c r="EJ2">
-        <v>20.75</v>
+        <v>47.05</v>
       </c>
       <c r="EK2">
-        <v>23.33</v>
+        <v>60.65</v>
       </c>
       <c r="EL2">
-        <v>23.22</v>
+        <v>63.17</v>
       </c>
       <c r="EM2">
-        <v>22.2</v>
+        <v>63.1</v>
       </c>
       <c r="EN2">
-        <v>23.33</v>
+        <v>68.94</v>
       </c>
       <c r="EO2">
-        <v>24.22</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="EP2">
-        <v>21.25</v>
+        <v>55.6</v>
       </c>
       <c r="EQ2">
-        <v>24.33</v>
+        <v>65.08</v>
       </c>
       <c r="ER2">
-        <v>24.42</v>
+        <v>61.56</v>
       </c>
       <c r="ES2">
-        <v>22.37</v>
+        <v>63.73</v>
       </c>
       <c r="ET2">
-        <v>24.83</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="EU2">
-        <v>24.1</v>
+        <v>69.05</v>
       </c>
       <c r="EV2">
-        <v>26.42</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="EW2">
-        <v>25.28</v>
+        <v>55.96</v>
       </c>
       <c r="EX2">
-        <v>29.69</v>
+        <v>69.02</v>
       </c>
       <c r="EY2">
-        <v>30.39</v>
+        <v>68.430000000000007</v>
       </c>
       <c r="EZ2">
-        <v>29.56</v>
+        <v>66.22</v>
       </c>
       <c r="FA2">
-        <v>27.4</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="FB2">
-        <v>32.799999999999997</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="FC2">
-        <v>30.61</v>
+        <v>65.05</v>
       </c>
       <c r="FD2">
-        <v>27.9</v>
+        <v>55.38</v>
       </c>
       <c r="FE2">
-        <v>31.34</v>
+        <v>66.63</v>
       </c>
       <c r="FF2">
-        <v>32.340000000000003</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="FG2">
-        <v>32.049999999999997</v>
+        <v>68.8</v>
       </c>
       <c r="FH2">
-        <v>32.31</v>
+        <v>67.94</v>
       </c>
       <c r="FI2">
-        <v>37.479999999999997</v>
+        <v>71.819999999999993</v>
       </c>
       <c r="FJ2">
-        <v>32.9</v>
+        <v>64.8</v>
       </c>
       <c r="FK2">
-        <v>28.85</v>
+        <v>49.21</v>
       </c>
       <c r="FL2">
-        <v>37</v>
+        <v>66.95</v>
       </c>
       <c r="FM2">
-        <v>37.82</v>
+        <v>63.08</v>
       </c>
       <c r="FN2">
-        <v>37.75</v>
+        <v>69.489999999999995</v>
       </c>
       <c r="FO2">
-        <v>38.22</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="FP2">
-        <v>41.52</v>
+        <v>71.239999999999995</v>
       </c>
       <c r="FQ2">
-        <v>35.44</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="FR2">
-        <v>34.24</v>
+        <v>55.47</v>
       </c>
       <c r="FS2">
-        <v>40.51</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="FT2">
-        <v>38.729999999999997</v>
+        <v>63.71</v>
       </c>
       <c r="FU2">
-        <v>38.979999999999997</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="FV2">
-        <v>43.94</v>
+        <v>64.69</v>
       </c>
       <c r="FW2">
-        <v>38.130000000000003</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="FX2">
-        <v>38.15</v>
+        <v>53.49</v>
       </c>
       <c r="FY2">
-        <v>34.58</v>
+        <v>49.18</v>
       </c>
       <c r="FZ2">
-        <v>39.14</v>
+        <v>58.92</v>
       </c>
       <c r="GA2">
-        <v>41.36</v>
+        <v>63.66</v>
       </c>
       <c r="GB2">
-        <v>41.48</v>
+        <v>63.3</v>
       </c>
       <c r="GC2">
-        <v>45.38</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="GD2">
-        <v>35.25</v>
+        <v>68.52</v>
       </c>
       <c r="GE2">
-        <v>39.64</v>
+        <v>63.23</v>
       </c>
       <c r="GF2">
-        <v>41.64</v>
+        <v>52.49</v>
       </c>
       <c r="GG2">
-        <v>43.21</v>
+        <v>63.16</v>
       </c>
       <c r="GH2">
-        <v>45.44</v>
+        <v>63</v>
       </c>
       <c r="GI2">
-        <v>44.93</v>
+        <v>63.22</v>
       </c>
       <c r="GJ2">
-        <v>44.67</v>
+        <v>64.36</v>
       </c>
       <c r="GK2">
-        <v>45.44</v>
+        <v>68.31</v>
       </c>
       <c r="GL2">
-        <v>48.72</v>
+        <v>63.27</v>
       </c>
       <c r="GM2">
-        <v>41.67</v>
+        <v>52.72</v>
       </c>
       <c r="GN2">
-        <v>44.56</v>
+        <v>61.55</v>
       </c>
       <c r="GO2">
-        <v>46.42</v>
+        <v>62.57</v>
       </c>
       <c r="GP2">
-        <v>42.97</v>
+        <v>65.17</v>
       </c>
       <c r="GQ2">
-        <v>43.37</v>
+        <v>65.790000000000006</v>
       </c>
       <c r="GR2">
-        <v>46.23</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="GS2">
-        <v>51.61</v>
+        <v>62.41</v>
       </c>
       <c r="GT2">
-        <v>43.28</v>
+        <v>55.01</v>
       </c>
       <c r="GU2">
-        <v>47.13</v>
+        <v>62.88</v>
       </c>
       <c r="GV2">
-        <v>46.83</v>
+        <v>59.07</v>
       </c>
       <c r="GW2">
-        <v>49.14</v>
+        <v>64.790000000000006</v>
       </c>
       <c r="GX2">
-        <v>47.56</v>
+        <v>65.22</v>
       </c>
       <c r="GY2">
-        <v>48.66</v>
+        <v>66.92</v>
       </c>
       <c r="GZ2">
-        <v>50.66</v>
+        <v>64.38</v>
       </c>
       <c r="HA2">
-        <v>39.81</v>
+        <v>54.06</v>
       </c>
       <c r="HB2">
-        <v>48.54</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="HC2">
-        <v>42.04</v>
+        <v>65.86</v>
       </c>
       <c r="HD2">
-        <v>53.21</v>
+        <v>62.48</v>
       </c>
       <c r="HE2">
-        <v>49.81</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="HF2">
-        <v>50.24</v>
+        <v>71.540000000000006</v>
       </c>
       <c r="HG2">
-        <v>51.7</v>
+        <v>67.959999999999994</v>
       </c>
       <c r="HH2">
-        <v>47.33</v>
+        <v>57.59</v>
       </c>
       <c r="HI2">
-        <v>50.62</v>
+        <v>65.09</v>
       </c>
       <c r="HJ2">
-        <v>50.63</v>
+        <v>66.63</v>
       </c>
       <c r="HK2">
-        <v>47.64</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="HL2">
-        <v>46.72</v>
+        <v>65.89</v>
       </c>
       <c r="HM2">
-        <v>55.75</v>
+        <v>70.58</v>
       </c>
       <c r="HN2">
-        <v>54.6</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="HO2">
-        <v>38.200000000000003</v>
+        <v>54.7</v>
       </c>
       <c r="HP2">
-        <v>51.68</v>
+        <v>67.16</v>
       </c>
       <c r="HQ2">
-        <v>53.73</v>
+        <v>65.02</v>
       </c>
       <c r="HR2">
-        <v>49.75</v>
+        <v>62.94</v>
       </c>
       <c r="HS2">
-        <v>55.29</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="HT2">
-        <v>58.65</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="HU2">
-        <v>55.97</v>
+        <v>66.63</v>
       </c>
       <c r="HV2">
-        <v>47.32</v>
+        <v>57.26</v>
       </c>
       <c r="HW2">
-        <v>52.29</v>
+        <v>66.19</v>
       </c>
       <c r="HX2">
-        <v>52.22</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="HY2">
-        <v>53.22</v>
+        <v>64</v>
       </c>
       <c r="HZ2">
-        <v>49.8</v>
+        <v>67.37</v>
       </c>
       <c r="IA2">
-        <v>55.04</v>
+        <v>69.97</v>
       </c>
       <c r="IB2">
-        <v>47.59</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="IC2">
-        <v>50.17</v>
+        <v>52.16</v>
       </c>
       <c r="ID2">
-        <v>49.09</v>
+        <v>66.3</v>
       </c>
       <c r="IE2">
-        <v>49.23</v>
+        <v>60.01</v>
       </c>
       <c r="IF2">
-        <v>49.11</v>
+        <v>60.14</v>
       </c>
       <c r="IG2">
-        <v>51.79</v>
+        <v>63.22</v>
       </c>
       <c r="IH2">
-        <v>59.41</v>
+        <v>73.87</v>
       </c>
       <c r="II2">
-        <v>57.42</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="IJ2">
-        <v>49</v>
+        <v>55.45</v>
       </c>
       <c r="IK2">
-        <v>49.15</v>
+        <v>57.21</v>
       </c>
       <c r="IL2">
-        <v>51.71</v>
+        <v>64.150000000000006</v>
       </c>
       <c r="IM2">
-        <v>51.53</v>
+        <v>60.91</v>
       </c>
       <c r="IN2">
-        <v>47.97</v>
+        <v>61.99</v>
       </c>
       <c r="IO2">
-        <v>59.99</v>
+        <v>68.209999999999994</v>
       </c>
       <c r="IP2">
-        <v>60.36</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="IQ2">
-        <v>47.2</v>
+        <v>54.72</v>
       </c>
       <c r="IR2">
-        <v>50.49</v>
+        <v>64</v>
       </c>
       <c r="IS2">
-        <v>50.35</v>
+        <v>65.39</v>
       </c>
       <c r="IT2">
-        <v>51.16</v>
+        <v>67.75</v>
       </c>
       <c r="IU2">
-        <v>53.07</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="IV2">
-        <v>58.55</v>
+        <v>79</v>
       </c>
       <c r="IW2">
-        <v>61.66</v>
+        <v>76.55</v>
       </c>
       <c r="IX2">
-        <v>50.43</v>
+        <v>62.03</v>
       </c>
       <c r="IY2">
-        <v>49.18</v>
+        <v>65.91</v>
       </c>
       <c r="IZ2">
-        <v>49.6</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="JA2">
-        <v>52.08</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="JB2">
-        <v>52.39</v>
+        <v>70.88</v>
       </c>
       <c r="JC2">
-        <v>61.3</v>
+        <v>75.069999999999993</v>
       </c>
       <c r="JD2">
-        <v>63.75</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="JE2">
-        <v>49.82</v>
+        <v>57.69</v>
       </c>
       <c r="JF2">
-        <v>50.37</v>
+        <v>66.59</v>
       </c>
       <c r="JG2">
-        <v>47.02</v>
+        <v>66.17</v>
       </c>
       <c r="JH2">
-        <v>50.69</v>
+        <v>67.39</v>
       </c>
       <c r="JI2">
-        <v>54.46</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="JJ2">
-        <v>59.66</v>
+        <v>71.33</v>
       </c>
       <c r="JK2">
-        <v>63.07</v>
+        <v>68.39</v>
       </c>
       <c r="JL2">
-        <v>48.4</v>
+        <v>56.11</v>
       </c>
       <c r="JM2">
-        <v>49.63</v>
+        <v>66.430000000000007</v>
       </c>
       <c r="JN2">
-        <v>50.57</v>
+        <v>66.06</v>
       </c>
       <c r="JO2">
-        <v>50.36</v>
+        <v>67.61</v>
       </c>
       <c r="JP2">
-        <v>53.56</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="JQ2">
-        <v>61.5</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="JR2">
-        <v>65.53</v>
+        <v>71.98</v>
       </c>
       <c r="JS2">
-        <v>48.49</v>
+        <v>57.97</v>
       </c>
       <c r="JT2">
-        <v>42.43</v>
+        <v>68.849999999999994</v>
       </c>
       <c r="JU2">
-        <v>47.13</v>
+        <v>67.58</v>
       </c>
       <c r="JV2">
-        <v>52.71</v>
+        <v>66.680000000000007</v>
       </c>
       <c r="JW2">
-        <v>54.51</v>
+        <v>65.45</v>
       </c>
       <c r="JX2">
-        <v>51.44</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="JY2">
-        <v>65.09</v>
+        <v>69.72</v>
       </c>
       <c r="JZ2">
-        <v>50.49</v>
+        <v>57.15</v>
       </c>
       <c r="KA2">
-        <v>50.52</v>
+        <v>66.709999999999994</v>
       </c>
       <c r="KB2">
-        <v>50.32</v>
+        <v>67.11</v>
       </c>
       <c r="KC2">
-        <v>51.62</v>
+        <v>63.98</v>
       </c>
       <c r="KD2">
-        <v>53.26</v>
+        <v>68.61</v>
       </c>
       <c r="KE2">
-        <v>62.07</v>
+        <v>66.98</v>
       </c>
       <c r="KF2">
-        <v>64.22</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="KG2">
-        <v>47.94</v>
+        <v>52.83</v>
       </c>
       <c r="KH2">
-        <v>48.25</v>
+        <v>60.93</v>
       </c>
       <c r="KI2">
-        <v>50.23</v>
+        <v>58.27</v>
       </c>
       <c r="KJ2">
-        <v>49.65</v>
+        <v>56.66</v>
       </c>
       <c r="KK2">
-        <v>46.44</v>
+        <v>63.81</v>
       </c>
       <c r="KL2">
-        <v>55.89</v>
+        <v>74.87</v>
       </c>
       <c r="KM2">
-        <v>62.81</v>
-      </c>
-      <c r="KN2">
-        <v>43.1</v>
-      </c>
-      <c r="KO2">
-        <v>47.29</v>
-      </c>
-      <c r="KP2">
-        <v>43.62</v>
-      </c>
-      <c r="KQ2">
-        <v>44.2</v>
-      </c>
-      <c r="KR2">
-        <v>50.18</v>
-      </c>
-      <c r="KS2">
-        <v>58.54</v>
-      </c>
-      <c r="KT2">
-        <v>62.59</v>
-      </c>
-      <c r="KU2">
-        <v>50.02</v>
-      </c>
-      <c r="KV2">
-        <v>49.65</v>
-      </c>
-      <c r="KW2">
-        <v>51.29</v>
+        <v>64.8</v>
       </c>
     </row>
-    <row r="3" spans="1:309" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -2323,918 +2260,888 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>101.59</v>
+        <v>92.66</v>
       </c>
       <c r="I3">
-        <v>104.05</v>
+        <v>95.29</v>
       </c>
       <c r="J3">
-        <v>97.69</v>
+        <v>96.42</v>
       </c>
       <c r="K3">
-        <v>115.19</v>
+        <v>107.5</v>
       </c>
       <c r="L3">
-        <v>108.1</v>
+        <v>101.22</v>
       </c>
       <c r="M3">
-        <v>92.83</v>
+        <v>93.41</v>
       </c>
       <c r="N3">
-        <v>98.47</v>
+        <v>87.91</v>
       </c>
       <c r="O3">
-        <v>108.29</v>
+        <v>94.76</v>
       </c>
       <c r="P3">
-        <v>114</v>
+        <v>98.07</v>
       </c>
       <c r="Q3">
-        <v>113.35</v>
+        <v>101.52</v>
       </c>
       <c r="R3">
-        <v>122.65</v>
+        <v>114.06</v>
       </c>
       <c r="S3">
-        <v>112.84</v>
+        <v>105.16</v>
       </c>
       <c r="T3">
-        <v>90.13</v>
+        <v>85.92</v>
       </c>
       <c r="U3">
-        <v>107.83</v>
+        <v>91.57</v>
       </c>
       <c r="V3">
-        <v>104.67</v>
+        <v>91.79</v>
       </c>
       <c r="W3">
-        <v>108.54</v>
+        <v>93.18</v>
       </c>
       <c r="X3">
-        <v>110.47</v>
+        <v>98.02</v>
       </c>
       <c r="Y3">
-        <v>122.26</v>
+        <v>110.46</v>
       </c>
       <c r="Z3">
-        <v>111.39</v>
+        <v>109.24</v>
       </c>
       <c r="AA3">
-        <v>87.44</v>
+        <v>83.39</v>
       </c>
       <c r="AB3">
-        <v>103.25</v>
+        <v>91.31</v>
       </c>
       <c r="AC3">
-        <v>106.6</v>
+        <v>92.84</v>
       </c>
       <c r="AD3">
-        <v>108.83</v>
+        <v>93.88</v>
       </c>
       <c r="AE3">
-        <v>112.99</v>
+        <v>97.57</v>
       </c>
       <c r="AF3">
-        <v>125.9</v>
+        <v>111.75</v>
       </c>
       <c r="AG3">
-        <v>121.33</v>
+        <v>117.34</v>
       </c>
       <c r="AH3">
-        <v>90.89</v>
+        <v>89.88</v>
       </c>
       <c r="AI3">
-        <v>108.49</v>
+        <v>91.7</v>
       </c>
       <c r="AJ3">
-        <v>111.13</v>
+        <v>95.7</v>
       </c>
       <c r="AK3">
-        <v>112.76</v>
+        <v>97.68</v>
       </c>
       <c r="AL3">
-        <v>115.84</v>
+        <v>103.34</v>
       </c>
       <c r="AM3">
-        <v>129.30000000000001</v>
+        <v>118.61</v>
       </c>
       <c r="AN3">
-        <v>116.41</v>
+        <v>113.45</v>
       </c>
       <c r="AO3">
-        <v>99.89</v>
+        <v>95.82</v>
       </c>
       <c r="AP3">
-        <v>101.12</v>
+        <v>100.99</v>
       </c>
       <c r="AQ3">
-        <v>111.35</v>
+        <v>99.87</v>
       </c>
       <c r="AR3">
-        <v>113.44</v>
+        <v>102.57</v>
       </c>
       <c r="AS3">
-        <v>116.27</v>
+        <v>104.23</v>
       </c>
       <c r="AT3">
-        <v>129.56</v>
+        <v>115.72</v>
       </c>
       <c r="AU3">
-        <v>120.02</v>
+        <v>117.34</v>
       </c>
       <c r="AV3">
-        <v>98.3</v>
+        <v>87.97</v>
       </c>
       <c r="AW3">
-        <v>108.15</v>
+        <v>91.49</v>
       </c>
       <c r="AX3">
-        <v>109.17</v>
+        <v>92.14</v>
       </c>
       <c r="AY3">
-        <v>113.6</v>
+        <v>94.63</v>
       </c>
       <c r="AZ3">
-        <v>114.74</v>
+        <v>97.48</v>
       </c>
       <c r="BA3">
-        <v>123.34</v>
+        <v>114.48</v>
       </c>
       <c r="BB3">
-        <v>110.45</v>
+        <v>115.21</v>
       </c>
       <c r="BC3">
-        <v>88.94</v>
+        <v>87.01</v>
       </c>
       <c r="BD3">
-        <v>99.32</v>
+        <v>92.87</v>
       </c>
       <c r="BE3">
-        <v>103.16</v>
+        <v>93.89</v>
       </c>
       <c r="BF3">
-        <v>107.46</v>
+        <v>98.65</v>
       </c>
       <c r="BG3">
-        <v>104.42</v>
+        <v>100.54</v>
       </c>
       <c r="BH3">
-        <v>116.29</v>
+        <v>108.43</v>
       </c>
       <c r="BI3">
-        <v>93.85</v>
+        <v>114.48</v>
       </c>
       <c r="BJ3">
-        <v>78.34</v>
+        <v>86.13</v>
       </c>
       <c r="BK3">
-        <v>95.86</v>
+        <v>92.2</v>
       </c>
       <c r="BL3">
-        <v>94.8</v>
+        <v>85.1</v>
       </c>
       <c r="BM3">
-        <v>91.52</v>
+        <v>81.650000000000006</v>
       </c>
       <c r="BN3">
-        <v>80.45</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="BO3">
-        <v>79.75</v>
+        <v>66.28</v>
       </c>
       <c r="BP3">
-        <v>49.01</v>
+        <v>58.17</v>
       </c>
       <c r="BQ3">
-        <v>42.38</v>
+        <v>40.65</v>
       </c>
       <c r="BR3">
-        <v>43.54</v>
+        <v>36.57</v>
       </c>
       <c r="BS3">
-        <v>28.09</v>
+        <v>30.15</v>
       </c>
       <c r="BT3">
-        <v>26.75</v>
+        <v>27.35</v>
       </c>
       <c r="BU3">
-        <v>27.13</v>
+        <v>25.2</v>
       </c>
       <c r="BV3">
-        <v>26.78</v>
+        <v>24.13</v>
       </c>
       <c r="BW3">
-        <v>18.940000000000001</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="BX3">
-        <v>21.62</v>
+        <v>14.97</v>
       </c>
       <c r="BY3">
-        <v>24.92</v>
+        <v>15.46</v>
       </c>
       <c r="BZ3">
-        <v>22.92</v>
+        <v>16.52</v>
       </c>
       <c r="CA3">
-        <v>23.28</v>
+        <v>15.32</v>
       </c>
       <c r="CB3">
-        <v>23.78</v>
+        <v>16.05</v>
       </c>
       <c r="CC3">
-        <v>21.86</v>
+        <v>17.14</v>
       </c>
       <c r="CD3">
-        <v>15.46</v>
+        <v>13.4</v>
       </c>
       <c r="CE3">
-        <v>17.89</v>
+        <v>12.84</v>
       </c>
       <c r="CF3">
-        <v>21.95</v>
+        <v>15.43</v>
       </c>
       <c r="CG3">
-        <v>22.88</v>
+        <v>14.55</v>
       </c>
       <c r="CH3">
-        <v>22.52</v>
+        <v>14.39</v>
       </c>
       <c r="CI3">
-        <v>21.29</v>
+        <v>13.84</v>
       </c>
       <c r="CJ3">
-        <v>22.66</v>
+        <v>13.76</v>
       </c>
       <c r="CK3">
-        <v>14.8</v>
+        <v>12.71</v>
       </c>
       <c r="CL3">
-        <v>16.690000000000001</v>
+        <v>12.03</v>
       </c>
       <c r="CM3">
-        <v>19.14</v>
+        <v>14.26</v>
       </c>
       <c r="CN3">
-        <v>21.05</v>
+        <v>13.54</v>
       </c>
       <c r="CO3">
-        <v>19.829999999999998</v>
+        <v>13.32</v>
       </c>
       <c r="CP3">
-        <v>21.28</v>
+        <v>12.73</v>
       </c>
       <c r="CQ3">
-        <v>19.61</v>
+        <v>13.37</v>
       </c>
       <c r="CR3">
-        <v>14.89</v>
+        <v>12.52</v>
       </c>
       <c r="CS3">
-        <v>15.92</v>
+        <v>11.25</v>
       </c>
       <c r="CT3">
-        <v>19.97</v>
+        <v>12.75</v>
       </c>
       <c r="CU3">
-        <v>19.16</v>
+        <v>14.13</v>
       </c>
       <c r="CV3">
-        <v>23.26</v>
+        <v>13.42</v>
       </c>
       <c r="CW3">
-        <v>21.01</v>
+        <v>13.34</v>
       </c>
       <c r="CX3">
-        <v>24.66</v>
+        <v>13.46</v>
       </c>
       <c r="CY3">
-        <v>14.62</v>
+        <v>12.1</v>
       </c>
       <c r="CZ3">
-        <v>17.899999999999999</v>
+        <v>12.61</v>
       </c>
       <c r="DA3">
-        <v>19.63</v>
+        <v>14.58</v>
       </c>
       <c r="DB3">
-        <v>19.62</v>
+        <v>13.49</v>
       </c>
       <c r="DC3">
-        <v>20.46</v>
+        <v>14.06</v>
       </c>
       <c r="DD3">
-        <v>20.309999999999999</v>
+        <v>14.03</v>
       </c>
       <c r="DE3">
-        <v>21.32</v>
+        <v>13.83</v>
       </c>
       <c r="DF3">
-        <v>15.44</v>
+        <v>14.08</v>
       </c>
       <c r="DG3">
-        <v>17.05</v>
+        <v>12.19</v>
       </c>
       <c r="DH3">
+        <v>14.98</v>
+      </c>
+      <c r="DI3">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="DJ3">
+        <v>15.39</v>
+      </c>
+      <c r="DK3">
+        <v>14.9</v>
+      </c>
+      <c r="DL3">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="DM3">
+        <v>16.37</v>
+      </c>
+      <c r="DN3">
+        <v>15.64</v>
+      </c>
+      <c r="DO3">
+        <v>18.02</v>
+      </c>
+      <c r="DP3">
+        <v>17.96</v>
+      </c>
+      <c r="DQ3">
+        <v>17.03</v>
+      </c>
+      <c r="DR3">
+        <v>17.64</v>
+      </c>
+      <c r="DS3">
+        <v>16.14</v>
+      </c>
+      <c r="DT3">
+        <v>15.41</v>
+      </c>
+      <c r="DU3">
+        <v>14.63</v>
+      </c>
+      <c r="DX3">
+        <v>18.45</v>
+      </c>
+      <c r="DY3">
+        <v>18.54</v>
+      </c>
+      <c r="DZ3">
+        <v>20.14</v>
+      </c>
+      <c r="EA3">
         <v>19.170000000000002</v>
       </c>
-      <c r="DI3">
-        <v>21.23</v>
-      </c>
-      <c r="DJ3">
-        <v>21.39</v>
-      </c>
-      <c r="DK3">
-        <v>21.31</v>
-      </c>
-      <c r="DL3">
-        <v>22.4</v>
-      </c>
-      <c r="DM3">
-        <v>16.75</v>
-      </c>
-      <c r="DN3">
-        <v>21.17</v>
-      </c>
-      <c r="DO3">
-        <v>22.91</v>
-      </c>
-      <c r="DP3">
-        <v>22.92</v>
-      </c>
-      <c r="DQ3">
-        <v>23.03</v>
-      </c>
-      <c r="DR3">
-        <v>23.45</v>
-      </c>
-      <c r="DS3">
-        <v>24.06</v>
-      </c>
-      <c r="DT3">
-        <v>22.7</v>
-      </c>
-      <c r="DU3">
-        <v>18.61</v>
-      </c>
-      <c r="DX3">
-        <v>22.42</v>
-      </c>
-      <c r="DY3">
-        <v>22.81</v>
-      </c>
-      <c r="DZ3">
-        <v>24.4</v>
-      </c>
-      <c r="EA3">
-        <v>19.21</v>
-      </c>
       <c r="EB3">
-        <v>20.399999999999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="EC3">
+        <v>20.05</v>
+      </c>
+      <c r="ED3">
+        <v>20.02</v>
+      </c>
+      <c r="EE3">
+        <v>20.18</v>
+      </c>
+      <c r="EF3">
+        <v>20.81</v>
+      </c>
+      <c r="EG3">
+        <v>21.19</v>
+      </c>
+      <c r="EH3">
+        <v>18.05</v>
+      </c>
+      <c r="EI3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="EJ3">
+        <v>20.75</v>
+      </c>
+      <c r="EK3">
+        <v>23.33</v>
+      </c>
+      <c r="EL3">
+        <v>23.22</v>
+      </c>
+      <c r="EM3">
+        <v>22.2</v>
+      </c>
+      <c r="EN3">
+        <v>23.33</v>
+      </c>
+      <c r="EO3">
+        <v>24.22</v>
+      </c>
+      <c r="EP3">
+        <v>21.25</v>
+      </c>
+      <c r="EQ3">
+        <v>24.33</v>
+      </c>
+      <c r="ER3">
+        <v>24.42</v>
+      </c>
+      <c r="ES3">
+        <v>22.37</v>
+      </c>
+      <c r="ET3">
+        <v>24.83</v>
+      </c>
+      <c r="EU3">
         <v>24.1</v>
       </c>
-      <c r="ED3">
-        <v>19.87</v>
-      </c>
-      <c r="EE3">
-        <v>23.3</v>
-      </c>
-      <c r="EF3">
-        <v>20.82</v>
-      </c>
-      <c r="EG3">
-        <v>24.93</v>
-      </c>
-      <c r="EH3">
-        <v>20</v>
-      </c>
-      <c r="EI3">
-        <v>22.6</v>
-      </c>
-      <c r="EJ3">
-        <v>25.55</v>
-      </c>
-      <c r="EK3">
-        <v>27.53</v>
-      </c>
-      <c r="EL3">
-        <v>27.44</v>
-      </c>
-      <c r="EM3">
-        <v>26.77</v>
-      </c>
-      <c r="EN3">
-        <v>27.35</v>
-      </c>
-      <c r="EO3">
-        <v>20.149999999999999</v>
-      </c>
-      <c r="EP3">
-        <v>22</v>
-      </c>
-      <c r="EQ3">
-        <v>27.64</v>
-      </c>
-      <c r="ER3">
-        <v>26.8</v>
-      </c>
-      <c r="ES3">
-        <v>30.03</v>
-      </c>
-      <c r="ET3">
-        <v>27.13</v>
-      </c>
-      <c r="EU3">
-        <v>28.01</v>
-      </c>
       <c r="EV3">
-        <v>22.91</v>
+        <v>26.42</v>
       </c>
       <c r="EW3">
-        <v>25.2</v>
+        <v>25.28</v>
       </c>
       <c r="EX3">
-        <v>30.06</v>
+        <v>29.69</v>
       </c>
       <c r="EY3">
+        <v>30.39</v>
+      </c>
+      <c r="EZ3">
+        <v>29.56</v>
+      </c>
+      <c r="FA3">
+        <v>27.4</v>
+      </c>
+      <c r="FB3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="FC3">
         <v>30.61</v>
       </c>
-      <c r="EZ3">
-        <v>30.82</v>
-      </c>
-      <c r="FA3">
-        <v>31.27</v>
-      </c>
-      <c r="FB3">
-        <v>31.68</v>
-      </c>
-      <c r="FC3">
-        <v>26.75</v>
-      </c>
       <c r="FD3">
-        <v>24.78</v>
+        <v>27.9</v>
       </c>
       <c r="FE3">
-        <v>32.5</v>
+        <v>31.34</v>
       </c>
       <c r="FF3">
-        <v>33.25</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="FG3">
-        <v>32.200000000000003</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="FH3">
-        <v>31.22</v>
+        <v>32.31</v>
       </c>
       <c r="FI3">
-        <v>34.65</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="FJ3">
-        <v>26.86</v>
+        <v>32.9</v>
       </c>
       <c r="FK3">
-        <v>26.47</v>
+        <v>28.85</v>
       </c>
       <c r="FL3">
-        <v>34.92</v>
+        <v>37</v>
       </c>
       <c r="FM3">
-        <v>33.35</v>
+        <v>37.82</v>
       </c>
       <c r="FN3">
-        <v>34.08</v>
+        <v>37.75</v>
       </c>
       <c r="FO3">
-        <v>29.96</v>
+        <v>38.22</v>
       </c>
       <c r="FP3">
-        <v>31.82</v>
+        <v>41.52</v>
       </c>
       <c r="FQ3">
-        <v>28.32</v>
+        <v>35.44</v>
       </c>
       <c r="FR3">
-        <v>25.79</v>
+        <v>34.24</v>
       </c>
       <c r="FS3">
-        <v>34.1</v>
+        <v>40.51</v>
       </c>
       <c r="FT3">
-        <v>34.630000000000003</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="FU3">
-        <v>36.22</v>
+        <v>38.979999999999997</v>
       </c>
       <c r="FV3">
-        <v>35.65</v>
+        <v>43.94</v>
       </c>
       <c r="FW3">
-        <v>34.270000000000003</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="FX3">
-        <v>25.03</v>
+        <v>38.15</v>
       </c>
       <c r="FY3">
-        <v>29.14</v>
+        <v>34.58</v>
       </c>
       <c r="FZ3">
-        <v>34.33</v>
+        <v>39.14</v>
       </c>
       <c r="GA3">
-        <v>36.17</v>
+        <v>41.36</v>
       </c>
       <c r="GB3">
-        <v>36.520000000000003</v>
+        <v>41.48</v>
       </c>
       <c r="GC3">
-        <v>35.68</v>
+        <v>45.38</v>
       </c>
       <c r="GD3">
-        <v>37.200000000000003</v>
+        <v>35.25</v>
       </c>
       <c r="GE3">
-        <v>29.77</v>
+        <v>39.64</v>
       </c>
       <c r="GF3">
-        <v>31.46</v>
+        <v>41.64</v>
       </c>
       <c r="GG3">
-        <v>34.729999999999997</v>
+        <v>43.21</v>
       </c>
       <c r="GH3">
-        <v>34.9</v>
+        <v>45.44</v>
       </c>
       <c r="GI3">
-        <v>34.51</v>
+        <v>44.93</v>
       </c>
       <c r="GJ3">
-        <v>34.619999999999997</v>
+        <v>44.67</v>
       </c>
       <c r="GK3">
-        <v>35.979999999999997</v>
+        <v>45.44</v>
       </c>
       <c r="GL3">
-        <v>28.05</v>
+        <v>48.72</v>
       </c>
       <c r="GM3">
-        <v>29.2</v>
+        <v>41.67</v>
       </c>
       <c r="GN3">
-        <v>28.98</v>
+        <v>44.56</v>
       </c>
       <c r="GO3">
-        <v>34.549999999999997</v>
+        <v>46.42</v>
       </c>
       <c r="GP3">
-        <v>34.35</v>
+        <v>42.97</v>
       </c>
       <c r="GQ3">
-        <v>31.15</v>
+        <v>43.37</v>
       </c>
       <c r="GR3">
-        <v>34</v>
+        <v>46.23</v>
       </c>
       <c r="GS3">
-        <v>29.19</v>
+        <v>51.61</v>
       </c>
       <c r="GT3">
-        <v>30.46</v>
+        <v>43.28</v>
       </c>
       <c r="GU3">
-        <v>34.299999999999997</v>
+        <v>47.13</v>
       </c>
       <c r="GV3">
-        <v>35.07</v>
+        <v>46.83</v>
       </c>
       <c r="GW3">
-        <v>34.71</v>
+        <v>49.14</v>
       </c>
       <c r="GX3">
-        <v>34.57</v>
+        <v>47.56</v>
       </c>
       <c r="GY3">
-        <v>34.76</v>
+        <v>48.66</v>
       </c>
       <c r="GZ3">
-        <v>29.71</v>
+        <v>50.66</v>
       </c>
       <c r="HA3">
-        <v>29.87</v>
+        <v>39.81</v>
       </c>
       <c r="HB3">
-        <v>35.15</v>
+        <v>48.54</v>
       </c>
       <c r="HC3">
-        <v>34.409999999999997</v>
+        <v>42.04</v>
       </c>
       <c r="HD3">
-        <v>34.200000000000003</v>
+        <v>53.21</v>
       </c>
       <c r="HE3">
-        <v>37.020000000000003</v>
+        <v>49.81</v>
       </c>
       <c r="HF3">
-        <v>36.21</v>
+        <v>50.24</v>
       </c>
       <c r="HG3">
-        <v>29.86</v>
+        <v>51.7</v>
       </c>
       <c r="HH3">
-        <v>31.27</v>
+        <v>47.33</v>
       </c>
       <c r="HI3">
-        <v>34.9</v>
+        <v>50.62</v>
       </c>
       <c r="HJ3">
-        <v>34.11</v>
+        <v>50.63</v>
       </c>
       <c r="HK3">
-        <v>35.57</v>
+        <v>47.64</v>
       </c>
       <c r="HL3">
-        <v>35.43</v>
+        <v>46.72</v>
       </c>
       <c r="HM3">
-        <v>38.35</v>
+        <v>55.75</v>
       </c>
       <c r="HN3">
-        <v>35.47</v>
+        <v>54.6</v>
       </c>
       <c r="HO3">
-        <v>30.52</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="HP3">
-        <v>34.869999999999997</v>
+        <v>51.68</v>
       </c>
       <c r="HQ3">
-        <v>36.020000000000003</v>
+        <v>53.73</v>
       </c>
       <c r="HR3">
-        <v>35.9</v>
+        <v>49.75</v>
       </c>
       <c r="HS3">
-        <v>34.75</v>
+        <v>55.29</v>
       </c>
       <c r="HT3">
-        <v>36.619999999999997</v>
+        <v>58.65</v>
       </c>
       <c r="HU3">
-        <v>32.25</v>
+        <v>55.97</v>
       </c>
       <c r="HV3">
-        <v>30.96</v>
+        <v>47.32</v>
       </c>
       <c r="HW3">
-        <v>35.19</v>
+        <v>52.29</v>
       </c>
       <c r="HX3">
-        <v>34.92</v>
+        <v>52.22</v>
       </c>
       <c r="HY3">
-        <v>35.07</v>
+        <v>53.22</v>
       </c>
       <c r="HZ3">
-        <v>34.54</v>
+        <v>49.8</v>
       </c>
       <c r="IA3">
-        <v>36.68</v>
+        <v>55.04</v>
       </c>
       <c r="IB3">
-        <v>30.77</v>
+        <v>47.59</v>
       </c>
       <c r="IC3">
-        <v>31.84</v>
+        <v>50.17</v>
       </c>
       <c r="ID3">
-        <v>33.909999999999997</v>
+        <v>49.09</v>
       </c>
       <c r="IE3">
-        <v>34.39</v>
+        <v>49.23</v>
       </c>
       <c r="IF3">
-        <v>35.369999999999997</v>
+        <v>49.11</v>
       </c>
       <c r="IG3">
-        <v>35.369999999999997</v>
+        <v>51.79</v>
       </c>
       <c r="IH3">
-        <v>40.35</v>
+        <v>59.41</v>
       </c>
       <c r="II3">
-        <v>34.71</v>
+        <v>57.42</v>
       </c>
       <c r="IJ3">
-        <v>33.04</v>
+        <v>49</v>
       </c>
       <c r="IK3">
-        <v>33.770000000000003</v>
+        <v>49.15</v>
       </c>
       <c r="IL3">
-        <v>33.76</v>
+        <v>51.71</v>
       </c>
       <c r="IM3">
-        <v>30.04</v>
+        <v>51.53</v>
       </c>
       <c r="IN3">
-        <v>32.630000000000003</v>
+        <v>47.97</v>
       </c>
       <c r="IO3">
-        <v>33.96</v>
+        <v>59.99</v>
       </c>
       <c r="IP3">
-        <v>29.93</v>
+        <v>60.36</v>
       </c>
       <c r="IQ3">
-        <v>28.27</v>
+        <v>47.2</v>
       </c>
       <c r="IR3">
-        <v>31.47</v>
+        <v>50.49</v>
       </c>
       <c r="IS3">
-        <v>32.729999999999997</v>
+        <v>50.35</v>
       </c>
       <c r="IT3">
-        <v>35.33</v>
+        <v>51.16</v>
       </c>
       <c r="IU3">
-        <v>35.979999999999997</v>
+        <v>53.07</v>
       </c>
       <c r="IV3">
-        <v>39.01</v>
+        <v>58.55</v>
       </c>
       <c r="IW3">
-        <v>36.42</v>
+        <v>61.66</v>
       </c>
       <c r="IX3">
-        <v>30.79</v>
+        <v>50.43</v>
       </c>
       <c r="IY3">
-        <v>33.97</v>
+        <v>49.18</v>
       </c>
       <c r="IZ3">
-        <v>31.98</v>
+        <v>49.6</v>
       </c>
       <c r="JA3">
-        <v>33.479999999999997</v>
+        <v>52.08</v>
       </c>
       <c r="JB3">
-        <v>33.5</v>
+        <v>52.39</v>
       </c>
       <c r="JC3">
-        <v>36.479999999999997</v>
+        <v>61.3</v>
       </c>
       <c r="JD3">
-        <v>35.94</v>
+        <v>63.75</v>
       </c>
       <c r="JE3">
-        <v>31.21</v>
+        <v>49.82</v>
       </c>
       <c r="JF3">
-        <v>32.83</v>
+        <v>50.37</v>
       </c>
       <c r="JG3">
-        <v>34.15</v>
+        <v>47.02</v>
       </c>
       <c r="JH3">
-        <v>34.56</v>
+        <v>50.69</v>
       </c>
       <c r="JI3">
-        <v>36.590000000000003</v>
+        <v>54.46</v>
       </c>
       <c r="JJ3">
-        <v>39.119999999999997</v>
+        <v>59.66</v>
       </c>
       <c r="JK3">
-        <v>36.44</v>
+        <v>63.07</v>
       </c>
       <c r="JL3">
-        <v>34.090000000000003</v>
+        <v>48.4</v>
       </c>
       <c r="JM3">
-        <v>34.83</v>
+        <v>49.63</v>
       </c>
       <c r="JN3">
-        <v>32.64</v>
+        <v>50.57</v>
       </c>
       <c r="JO3">
-        <v>38.880000000000003</v>
+        <v>50.36</v>
       </c>
       <c r="JP3">
-        <v>35.01</v>
+        <v>53.56</v>
       </c>
       <c r="JQ3">
-        <v>39.29</v>
+        <v>61.5</v>
       </c>
       <c r="JR3">
-        <v>36.33</v>
+        <v>65.53</v>
       </c>
       <c r="JS3">
-        <v>35.44</v>
+        <v>48.49</v>
       </c>
       <c r="JT3">
-        <v>37.840000000000003</v>
+        <v>42.43</v>
       </c>
       <c r="JU3">
-        <v>36.409999999999997</v>
+        <v>47.13</v>
       </c>
       <c r="JV3">
-        <v>37.35</v>
+        <v>52.71</v>
       </c>
       <c r="JW3">
-        <v>37.83</v>
+        <v>54.51</v>
       </c>
       <c r="JX3">
-        <v>42.93</v>
+        <v>51.44</v>
       </c>
       <c r="JY3">
-        <v>39.270000000000003</v>
+        <v>65.09</v>
       </c>
       <c r="JZ3">
-        <v>35.450000000000003</v>
+        <v>50.49</v>
       </c>
       <c r="KA3">
-        <v>36.25</v>
+        <v>50.52</v>
       </c>
       <c r="KB3">
-        <v>37.58</v>
+        <v>50.32</v>
       </c>
       <c r="KC3">
-        <v>36.15</v>
+        <v>51.62</v>
       </c>
       <c r="KD3">
-        <v>36.49</v>
+        <v>53.26</v>
       </c>
       <c r="KE3">
-        <v>41.28</v>
+        <v>62.07</v>
       </c>
       <c r="KF3">
-        <v>37.78</v>
+        <v>64.22</v>
       </c>
       <c r="KG3">
-        <v>34.299999999999997</v>
+        <v>47.94</v>
       </c>
       <c r="KH3">
-        <v>36.39</v>
+        <v>48.25</v>
       </c>
       <c r="KI3">
-        <v>33.69</v>
+        <v>50.23</v>
       </c>
       <c r="KJ3">
-        <v>36.950000000000003</v>
+        <v>49.65</v>
       </c>
       <c r="KK3">
-        <v>36.46</v>
+        <v>46.44</v>
       </c>
       <c r="KL3">
-        <v>42.93</v>
+        <v>55.89</v>
       </c>
       <c r="KM3">
-        <v>37.49</v>
-      </c>
-      <c r="KN3">
-        <v>33.06</v>
-      </c>
-      <c r="KO3">
-        <v>35.01</v>
-      </c>
-      <c r="KP3">
-        <v>34.32</v>
-      </c>
-      <c r="KQ3">
-        <v>34.33</v>
-      </c>
-      <c r="KR3">
-        <v>35.78</v>
-      </c>
-      <c r="KS3">
-        <v>37.869999999999997</v>
-      </c>
-      <c r="KT3">
-        <v>34.67</v>
-      </c>
-      <c r="KU3">
-        <v>31.31</v>
-      </c>
-      <c r="KV3">
-        <v>34.04</v>
-      </c>
-      <c r="KW3">
-        <v>32.43</v>
+        <v>62.81</v>
       </c>
     </row>
-    <row r="4" spans="1:309" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -3243,924 +3150,888 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>98.59</v>
+        <v>106.52</v>
       </c>
       <c r="I4">
-        <v>102.63</v>
+        <v>101.87</v>
       </c>
       <c r="J4">
-        <v>97.84</v>
+        <v>100.82</v>
       </c>
       <c r="K4">
-        <v>99.09</v>
+        <v>105.16</v>
       </c>
       <c r="L4">
-        <v>70.36</v>
+        <v>91.88</v>
       </c>
       <c r="M4">
-        <v>67.56</v>
+        <v>76.41</v>
       </c>
       <c r="N4">
-        <v>81.2</v>
+        <v>93.08</v>
       </c>
       <c r="O4">
-        <v>100.44</v>
+        <v>98.96</v>
       </c>
       <c r="P4">
-        <v>99.49</v>
+        <v>104.56</v>
       </c>
       <c r="Q4">
-        <v>102.36</v>
+        <v>99.17</v>
       </c>
       <c r="R4">
-        <v>100.67</v>
+        <v>104.23</v>
       </c>
       <c r="S4">
-        <v>84.05</v>
+        <v>91.12</v>
       </c>
       <c r="T4">
-        <v>71.25</v>
+        <v>72</v>
       </c>
       <c r="U4">
-        <v>105.47</v>
+        <v>99.23</v>
       </c>
       <c r="V4">
-        <v>97.14</v>
+        <v>99.69</v>
       </c>
       <c r="W4">
-        <v>93.49</v>
+        <v>102.22</v>
       </c>
       <c r="X4">
-        <v>95.13</v>
+        <v>102.26</v>
       </c>
       <c r="Y4">
-        <v>99.4</v>
+        <v>107.84</v>
       </c>
       <c r="Z4">
-        <v>78.31</v>
+        <v>93.76</v>
       </c>
       <c r="AA4">
-        <v>67.25</v>
+        <v>71.58</v>
       </c>
       <c r="AB4">
-        <v>101.88</v>
+        <v>97.06</v>
       </c>
       <c r="AC4">
-        <v>102.41</v>
+        <v>100.53</v>
       </c>
       <c r="AD4">
-        <v>100.66</v>
+        <v>100.89</v>
       </c>
       <c r="AE4">
-        <v>95.24</v>
+        <v>98.64</v>
       </c>
       <c r="AF4">
-        <v>93.46</v>
+        <v>109.81</v>
       </c>
       <c r="AG4">
-        <v>79.930000000000007</v>
+        <v>99.8</v>
       </c>
       <c r="AH4">
-        <v>70.83</v>
+        <v>75.87</v>
       </c>
       <c r="AI4">
-        <v>96.66</v>
+        <v>96.51</v>
       </c>
       <c r="AJ4">
-        <v>99.61</v>
+        <v>101.08</v>
       </c>
       <c r="AK4">
-        <v>100.62</v>
+        <v>106.45</v>
       </c>
       <c r="AL4">
-        <v>99.5</v>
+        <v>105.28</v>
       </c>
       <c r="AM4">
-        <v>104.23</v>
+        <v>110.02</v>
       </c>
       <c r="AN4">
-        <v>81.64</v>
+        <v>94.05</v>
       </c>
       <c r="AO4">
-        <v>74.069999999999993</v>
+        <v>79.67</v>
       </c>
       <c r="AP4">
-        <v>90.32</v>
+        <v>97.86</v>
       </c>
       <c r="AQ4">
-        <v>109.41</v>
+        <v>103.87</v>
       </c>
       <c r="AR4">
-        <v>108.88</v>
+        <v>104.89</v>
       </c>
       <c r="AS4">
-        <v>104.48</v>
+        <v>104.44</v>
       </c>
       <c r="AT4">
-        <v>104.29</v>
+        <v>112</v>
       </c>
       <c r="AU4">
-        <v>87.13</v>
+        <v>91.85</v>
       </c>
       <c r="AV4">
-        <v>72.760000000000005</v>
+        <v>85.49</v>
       </c>
       <c r="AW4">
-        <v>104.02</v>
+        <v>102.84</v>
       </c>
       <c r="AX4">
-        <v>96.62</v>
+        <v>110.35</v>
       </c>
       <c r="AY4">
-        <v>99.45</v>
+        <v>103.18</v>
       </c>
       <c r="AZ4">
-        <v>94.92</v>
+        <v>100.09</v>
       </c>
       <c r="BA4">
-        <v>102.48</v>
+        <v>109.35</v>
       </c>
       <c r="BB4">
-        <v>83.95</v>
+        <v>102.76</v>
       </c>
       <c r="BC4">
-        <v>73.239999999999995</v>
+        <v>82.27</v>
       </c>
       <c r="BD4">
-        <v>105.48</v>
+        <v>103.69</v>
       </c>
       <c r="BE4">
-        <v>105.35</v>
+        <v>105.7</v>
       </c>
       <c r="BF4">
-        <v>110.63</v>
+        <v>105.88</v>
       </c>
       <c r="BG4">
-        <v>105.35</v>
+        <v>105.23</v>
       </c>
       <c r="BH4">
-        <v>111.74</v>
+        <v>117.88</v>
       </c>
       <c r="BI4">
-        <v>94.83</v>
+        <v>102.6</v>
       </c>
       <c r="BJ4">
-        <v>77.63</v>
+        <v>80.260000000000005</v>
       </c>
       <c r="BK4">
-        <v>110.75</v>
+        <v>100.98</v>
       </c>
       <c r="BL4">
-        <v>101.47</v>
+        <v>96.33</v>
       </c>
       <c r="BM4">
-        <v>99.54</v>
+        <v>85.38</v>
       </c>
       <c r="BN4">
-        <v>94.33</v>
+        <v>82.61</v>
       </c>
       <c r="BO4">
-        <v>89.59</v>
+        <v>81.97</v>
       </c>
       <c r="BP4">
-        <v>76.78</v>
+        <v>77.569999999999993</v>
       </c>
       <c r="BQ4">
-        <v>60.25</v>
+        <v>63.75</v>
       </c>
       <c r="BR4">
-        <v>64.930000000000007</v>
+        <v>83.36</v>
       </c>
       <c r="BS4">
-        <v>63.85</v>
+        <v>68.849999999999994</v>
       </c>
       <c r="BT4">
-        <v>62.95</v>
+        <v>55.34</v>
       </c>
       <c r="BU4">
+        <v>56.57</v>
+      </c>
+      <c r="BV4">
+        <v>55.44</v>
+      </c>
+      <c r="BW4">
+        <v>47.82</v>
+      </c>
+      <c r="BX4">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="BY4">
+        <v>53.01</v>
+      </c>
+      <c r="BZ4">
+        <v>50.59</v>
+      </c>
+      <c r="CA4">
+        <v>48.96</v>
+      </c>
+      <c r="CB4">
+        <v>49.49</v>
+      </c>
+      <c r="CC4">
+        <v>48.28</v>
+      </c>
+      <c r="CD4">
+        <v>42.99</v>
+      </c>
+      <c r="CE4">
+        <v>39.71</v>
+      </c>
+      <c r="CF4">
+        <v>47.74</v>
+      </c>
+      <c r="CG4">
+        <v>42.49</v>
+      </c>
+      <c r="CH4">
+        <v>42.08</v>
+      </c>
+      <c r="CI4">
+        <v>40.69</v>
+      </c>
+      <c r="CJ4">
+        <v>41.45</v>
+      </c>
+      <c r="CK4">
+        <v>40.21</v>
+      </c>
+      <c r="CL4">
+        <v>36.15</v>
+      </c>
+      <c r="CM4">
+        <v>42.08</v>
+      </c>
+      <c r="CN4">
+        <v>40.64</v>
+      </c>
+      <c r="CO4">
+        <v>39.22</v>
+      </c>
+      <c r="CP4">
+        <v>41.84</v>
+      </c>
+      <c r="CQ4">
+        <v>42.02</v>
+      </c>
+      <c r="CR4">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="CS4">
+        <v>30.87</v>
+      </c>
+      <c r="CT4">
+        <v>42.3</v>
+      </c>
+      <c r="CU4">
+        <v>37.46</v>
+      </c>
+      <c r="CV4">
+        <v>40.15</v>
+      </c>
+      <c r="CW4">
+        <v>38.44</v>
+      </c>
+      <c r="CX4">
+        <v>42.1</v>
+      </c>
+      <c r="CY4">
+        <v>38.96</v>
+      </c>
+      <c r="CZ4">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="DA4">
+        <v>41.22</v>
+      </c>
+      <c r="DB4">
+        <v>40.44</v>
+      </c>
+      <c r="DC4">
+        <v>40.11</v>
+      </c>
+      <c r="DD4">
+        <v>42.12</v>
+      </c>
+      <c r="DE4">
+        <v>42.94</v>
+      </c>
+      <c r="DF4">
+        <v>37.68</v>
+      </c>
+      <c r="DG4">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="DH4">
+        <v>41.39</v>
+      </c>
+      <c r="DI4">
+        <v>42.56</v>
+      </c>
+      <c r="DJ4">
+        <v>43.76</v>
+      </c>
+      <c r="DK4">
+        <v>42.24</v>
+      </c>
+      <c r="DL4">
+        <v>46.96</v>
+      </c>
+      <c r="DM4">
+        <v>41.55</v>
+      </c>
+      <c r="DN4">
+        <v>36.92</v>
+      </c>
+      <c r="DO4">
+        <v>45.4</v>
+      </c>
+      <c r="DP4">
+        <v>44.19</v>
+      </c>
+      <c r="DQ4">
+        <v>43.64</v>
+      </c>
+      <c r="DR4">
+        <v>44.65</v>
+      </c>
+      <c r="DS4">
+        <v>48.55</v>
+      </c>
+      <c r="DT4">
+        <v>42.92</v>
+      </c>
+      <c r="DU4">
+        <v>35.9</v>
+      </c>
+      <c r="DX4">
+        <v>47.88</v>
+      </c>
+      <c r="DY4">
+        <v>46.64</v>
+      </c>
+      <c r="DZ4">
+        <v>50.63</v>
+      </c>
+      <c r="EA4">
+        <v>47.02</v>
+      </c>
+      <c r="EB4">
+        <v>40.35</v>
+      </c>
+      <c r="EC4">
+        <v>51.13</v>
+      </c>
+      <c r="ED4">
+        <v>51.09</v>
+      </c>
+      <c r="EE4">
+        <v>51.46</v>
+      </c>
+      <c r="EF4">
+        <v>48.82</v>
+      </c>
+      <c r="EG4">
+        <v>56.11</v>
+      </c>
+      <c r="EH4">
+        <v>50.46</v>
+      </c>
+      <c r="EI4">
+        <v>45.41</v>
+      </c>
+      <c r="EJ4">
+        <v>48.73</v>
+      </c>
+      <c r="EK4">
+        <v>54.13</v>
+      </c>
+      <c r="EL4">
+        <v>52.49</v>
+      </c>
+      <c r="EM4">
+        <v>53.07</v>
+      </c>
+      <c r="EN4">
+        <v>56.28</v>
+      </c>
+      <c r="EO4">
+        <v>51.23</v>
+      </c>
+      <c r="EP4">
+        <v>45.22</v>
+      </c>
+      <c r="EQ4">
+        <v>51.17</v>
+      </c>
+      <c r="ER4">
+        <v>52.82</v>
+      </c>
+      <c r="ES4">
+        <v>52.39</v>
+      </c>
+      <c r="ET4">
+        <v>51.03</v>
+      </c>
+      <c r="EU4">
+        <v>53.94</v>
+      </c>
+      <c r="EV4">
+        <v>50.58</v>
+      </c>
+      <c r="EW4">
+        <v>46.53</v>
+      </c>
+      <c r="EX4">
+        <v>54.79</v>
+      </c>
+      <c r="EY4">
+        <v>54.57</v>
+      </c>
+      <c r="EZ4">
+        <v>55.16</v>
+      </c>
+      <c r="FA4">
+        <v>56.66</v>
+      </c>
+      <c r="FB4">
+        <v>58.3</v>
+      </c>
+      <c r="FC4">
+        <v>55.07</v>
+      </c>
+      <c r="FD4">
+        <v>47.87</v>
+      </c>
+      <c r="FE4">
+        <v>57.18</v>
+      </c>
+      <c r="FF4">
+        <v>55.6</v>
+      </c>
+      <c r="FG4">
+        <v>56.22</v>
+      </c>
+      <c r="FH4">
+        <v>53.33</v>
+      </c>
+      <c r="FI4">
+        <v>56.75</v>
+      </c>
+      <c r="FJ4">
+        <v>51.83</v>
+      </c>
+      <c r="FK4">
+        <v>41.81</v>
+      </c>
+      <c r="FL4">
+        <v>52.81</v>
+      </c>
+      <c r="FM4">
+        <v>55.57</v>
+      </c>
+      <c r="FN4">
+        <v>51.98</v>
+      </c>
+      <c r="FO4">
+        <v>51.74</v>
+      </c>
+      <c r="FP4">
+        <v>54.62</v>
+      </c>
+      <c r="FQ4">
+        <v>48.99</v>
+      </c>
+      <c r="FR4">
+        <v>43.34</v>
+      </c>
+      <c r="FS4">
+        <v>50.44</v>
+      </c>
+      <c r="FT4">
+        <v>50.93</v>
+      </c>
+      <c r="FU4">
+        <v>49.07</v>
+      </c>
+      <c r="FV4">
+        <v>50</v>
+      </c>
+      <c r="FW4">
+        <v>49.99</v>
+      </c>
+      <c r="FX4">
+        <v>42.28</v>
+      </c>
+      <c r="FY4">
+        <v>38.47</v>
+      </c>
+      <c r="FZ4">
+        <v>52.56</v>
+      </c>
+      <c r="GA4">
+        <v>47.54</v>
+      </c>
+      <c r="GB4">
+        <v>49.1</v>
+      </c>
+      <c r="GC4">
+        <v>47.89</v>
+      </c>
+      <c r="GD4">
+        <v>50.17</v>
+      </c>
+      <c r="GE4">
+        <v>46.7</v>
+      </c>
+      <c r="GF4">
+        <v>38.14</v>
+      </c>
+      <c r="GG4">
+        <v>48.56</v>
+      </c>
+      <c r="GH4">
+        <v>49.5</v>
+      </c>
+      <c r="GI4">
+        <v>48.8</v>
+      </c>
+      <c r="GJ4">
+        <v>50.8</v>
+      </c>
+      <c r="GK4">
+        <v>50.55</v>
+      </c>
+      <c r="GL4">
+        <v>47.12</v>
+      </c>
+      <c r="GM4">
+        <v>40.29</v>
+      </c>
+      <c r="GN4">
+        <v>51.32</v>
+      </c>
+      <c r="GO4">
+        <v>50.19</v>
+      </c>
+      <c r="GP4">
+        <v>50.25</v>
+      </c>
+      <c r="GQ4">
+        <v>50.06</v>
+      </c>
+      <c r="GR4">
+        <v>51.61</v>
+      </c>
+      <c r="GS4">
+        <v>46.84</v>
+      </c>
+      <c r="GT4">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="GU4">
+        <v>50.55</v>
+      </c>
+      <c r="GV4">
+        <v>51.41</v>
+      </c>
+      <c r="GW4">
+        <v>52.49</v>
+      </c>
+      <c r="GX4">
+        <v>50.11</v>
+      </c>
+      <c r="GY4">
+        <v>53.42</v>
+      </c>
+      <c r="GZ4">
+        <v>48.72</v>
+      </c>
+      <c r="HA4">
+        <v>40.15</v>
+      </c>
+      <c r="HB4">
+        <v>52.93</v>
+      </c>
+      <c r="HC4">
+        <v>51.82</v>
+      </c>
+      <c r="HD4">
+        <v>49.07</v>
+      </c>
+      <c r="HE4">
+        <v>47.31</v>
+      </c>
+      <c r="HF4">
+        <v>53.03</v>
+      </c>
+      <c r="HG4">
+        <v>50.09</v>
+      </c>
+      <c r="HH4">
+        <v>41.58</v>
+      </c>
+      <c r="HI4">
+        <v>49.85</v>
+      </c>
+      <c r="HJ4">
+        <v>49.89</v>
+      </c>
+      <c r="HK4">
+        <v>51.46</v>
+      </c>
+      <c r="HL4">
+        <v>50.73</v>
+      </c>
+      <c r="HM4">
+        <v>55.37</v>
+      </c>
+      <c r="HN4">
+        <v>50.32</v>
+      </c>
+      <c r="HO4">
+        <v>45.93</v>
+      </c>
+      <c r="HP4">
+        <v>53.85</v>
+      </c>
+      <c r="HQ4">
+        <v>54.89</v>
+      </c>
+      <c r="HR4">
         <v>56.35</v>
       </c>
-      <c r="BV4">
-        <v>51.65</v>
-      </c>
-      <c r="BW4">
-        <v>44.62</v>
-      </c>
-      <c r="BX4">
-        <v>40.75</v>
-      </c>
-      <c r="BY4">
-        <v>45.7</v>
-      </c>
-      <c r="BZ4">
-        <v>48.36</v>
-      </c>
-      <c r="CA4">
-        <v>43.52</v>
-      </c>
-      <c r="CB4">
-        <v>47.06</v>
-      </c>
-      <c r="CC4">
-        <v>49.43</v>
-      </c>
-      <c r="CD4">
-        <v>41.6</v>
-      </c>
-      <c r="CE4">
-        <v>38.35</v>
-      </c>
-      <c r="CF4">
-        <v>42.7</v>
-      </c>
-      <c r="CG4">
-        <v>36.28</v>
-      </c>
-      <c r="CH4">
-        <v>38.56</v>
-      </c>
-      <c r="CI4">
-        <v>41.42</v>
-      </c>
-      <c r="CJ4">
-        <v>39.18</v>
-      </c>
-      <c r="CK4">
-        <v>36.26</v>
-      </c>
-      <c r="CL4">
-        <v>35.159999999999997</v>
-      </c>
-      <c r="CM4">
-        <v>40.17</v>
-      </c>
-      <c r="CN4">
-        <v>38.89</v>
-      </c>
-      <c r="CO4">
-        <v>42.97</v>
-      </c>
-      <c r="CP4">
-        <v>40.380000000000003</v>
-      </c>
-      <c r="CQ4">
-        <v>38.82</v>
-      </c>
-      <c r="CR4">
-        <v>38.369999999999997</v>
-      </c>
-      <c r="CS4">
-        <v>33.57</v>
-      </c>
-      <c r="CT4">
-        <v>40.19</v>
-      </c>
-      <c r="CU4">
-        <v>41.85</v>
-      </c>
-      <c r="CV4">
-        <v>43.09</v>
-      </c>
-      <c r="CW4">
-        <v>39.51</v>
-      </c>
-      <c r="CX4">
-        <v>42.09</v>
-      </c>
-      <c r="CY4">
-        <v>34.18</v>
-      </c>
-      <c r="CZ4">
-        <v>36.47</v>
-      </c>
-      <c r="DA4">
-        <v>43.66</v>
-      </c>
-      <c r="DB4">
-        <v>40.18</v>
-      </c>
-      <c r="DC4">
-        <v>41.91</v>
-      </c>
-      <c r="DD4">
-        <v>38.35</v>
-      </c>
-      <c r="DE4">
-        <v>42.15</v>
-      </c>
-      <c r="DF4">
-        <v>38.43</v>
-      </c>
-      <c r="DG4">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="DH4">
-        <v>48.93</v>
-      </c>
-      <c r="DI4">
-        <v>41.9</v>
-      </c>
-      <c r="DJ4">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="DK4">
-        <v>37.53</v>
-      </c>
-      <c r="DL4">
-        <v>46.12</v>
-      </c>
-      <c r="DM4">
-        <v>43.15</v>
-      </c>
-      <c r="DN4">
-        <v>36.54</v>
-      </c>
-      <c r="DO4">
-        <v>46.2</v>
-      </c>
-      <c r="DP4">
-        <v>47.96</v>
-      </c>
-      <c r="DQ4">
-        <v>43.89</v>
-      </c>
-      <c r="DR4">
-        <v>45.5</v>
-      </c>
-      <c r="DS4">
-        <v>45.83</v>
-      </c>
-      <c r="DT4">
-        <v>37.65</v>
-      </c>
-      <c r="DU4">
-        <v>37.22</v>
-      </c>
-      <c r="DV4">
-        <v>43.42</v>
-      </c>
-      <c r="DW4">
-        <v>33.68</v>
-      </c>
-      <c r="DX4">
-        <v>47.67</v>
-      </c>
-      <c r="DY4">
-        <v>49.92</v>
-      </c>
-      <c r="DZ4">
-        <v>54.18</v>
-      </c>
-      <c r="EA4">
-        <v>47.4</v>
-      </c>
-      <c r="EB4">
-        <v>43.13</v>
-      </c>
-      <c r="EC4">
+      <c r="HS4">
+        <v>55.34</v>
+      </c>
+      <c r="HT4">
+        <v>56.9</v>
+      </c>
+      <c r="HU4">
+        <v>55.3</v>
+      </c>
+      <c r="HV4">
+        <v>45.99</v>
+      </c>
+      <c r="HW4">
+        <v>54.67</v>
+      </c>
+      <c r="HX4">
+        <v>55.4</v>
+      </c>
+      <c r="HY4">
+        <v>53.45</v>
+      </c>
+      <c r="HZ4">
+        <v>55</v>
+      </c>
+      <c r="IA4">
+        <v>58.79</v>
+      </c>
+      <c r="IB4">
+        <v>53.18</v>
+      </c>
+      <c r="IC4">
+        <v>46.34</v>
+      </c>
+      <c r="ID4">
+        <v>56.61</v>
+      </c>
+      <c r="IE4">
+        <v>56.51</v>
+      </c>
+      <c r="IF4">
+        <v>58.62</v>
+      </c>
+      <c r="IG4">
+        <v>58.11</v>
+      </c>
+      <c r="IH4">
+        <v>63.31</v>
+      </c>
+      <c r="II4">
+        <v>54.32</v>
+      </c>
+      <c r="IJ4">
+        <v>46.87</v>
+      </c>
+      <c r="IK4">
+        <v>48.3</v>
+      </c>
+      <c r="IL4">
+        <v>58.61</v>
+      </c>
+      <c r="IM4">
+        <v>58.21</v>
+      </c>
+      <c r="IN4">
+        <v>59.54</v>
+      </c>
+      <c r="IO4">
+        <v>58.94</v>
+      </c>
+      <c r="IP4">
+        <v>61.24</v>
+      </c>
+      <c r="IQ4">
+        <v>49.13</v>
+      </c>
+      <c r="IR4">
+        <v>57.55</v>
+      </c>
+      <c r="IS4">
+        <v>56.08</v>
+      </c>
+      <c r="IT4">
+        <v>63.33</v>
+      </c>
+      <c r="IU4">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="IV4">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="IW4">
+        <v>62.23</v>
+      </c>
+      <c r="IX4">
+        <v>53.72</v>
+      </c>
+      <c r="IY4">
+        <v>61.74</v>
+      </c>
+      <c r="IZ4">
+        <v>61.48</v>
+      </c>
+      <c r="JA4">
+        <v>60.46</v>
+      </c>
+      <c r="JB4">
+        <v>62.08</v>
+      </c>
+      <c r="JC4">
+        <v>63.71</v>
+      </c>
+      <c r="JD4">
+        <v>62.74</v>
+      </c>
+      <c r="JE4">
+        <v>54.07</v>
+      </c>
+      <c r="JF4">
+        <v>63.13</v>
+      </c>
+      <c r="JG4">
+        <v>58.84</v>
+      </c>
+      <c r="JH4">
+        <v>61.35</v>
+      </c>
+      <c r="JI4">
+        <v>63.08</v>
+      </c>
+      <c r="JJ4">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="JK4">
+        <v>61.06</v>
+      </c>
+      <c r="JL4">
+        <v>49.46</v>
+      </c>
+      <c r="JM4">
+        <v>59.69</v>
+      </c>
+      <c r="JN4">
+        <v>59.14</v>
+      </c>
+      <c r="JO4">
+        <v>62.59</v>
+      </c>
+      <c r="JP4">
+        <v>61.72</v>
+      </c>
+      <c r="JQ4">
+        <v>65.56</v>
+      </c>
+      <c r="JR4">
+        <v>61.4</v>
+      </c>
+      <c r="JS4">
+        <v>50.65</v>
+      </c>
+      <c r="JT4">
+        <v>61.31</v>
+      </c>
+      <c r="JU4">
+        <v>63.05</v>
+      </c>
+      <c r="JV4">
+        <v>63.31</v>
+      </c>
+      <c r="JW4">
+        <v>61.75</v>
+      </c>
+      <c r="JX4">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="JY4">
+        <v>63.15</v>
+      </c>
+      <c r="JZ4">
         <v>52</v>
       </c>
-      <c r="ED4">
-        <v>53.35</v>
-      </c>
-      <c r="EE4">
-        <v>54.26</v>
-      </c>
-      <c r="EF4">
-        <v>52.79</v>
-      </c>
-      <c r="EG4">
-        <v>49.32</v>
-      </c>
-      <c r="EH4">
-        <v>51.63</v>
-      </c>
-      <c r="EI4">
-        <v>43.97</v>
-      </c>
-      <c r="EJ4">
-        <v>52.48</v>
-      </c>
-      <c r="EK4">
-        <v>57.29</v>
-      </c>
-      <c r="EL4">
-        <v>56.63</v>
-      </c>
-      <c r="EM4">
-        <v>50.58</v>
-      </c>
-      <c r="EN4">
-        <v>58.64</v>
-      </c>
-      <c r="EO4">
-        <v>54.55</v>
-      </c>
-      <c r="EP4">
-        <v>48.58</v>
-      </c>
-      <c r="EQ4">
-        <v>65.66</v>
-      </c>
-      <c r="ER4">
-        <v>58.3</v>
-      </c>
-      <c r="ES4">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="ET4">
-        <v>57.3</v>
-      </c>
-      <c r="EU4">
-        <v>58.15</v>
-      </c>
-      <c r="EV4">
-        <v>64.7</v>
-      </c>
-      <c r="EW4">
-        <v>54.11</v>
-      </c>
-      <c r="EX4">
-        <v>66.95</v>
-      </c>
-      <c r="EY4">
-        <v>64.680000000000007</v>
-      </c>
-      <c r="EZ4">
-        <v>64.790000000000006</v>
-      </c>
-      <c r="FA4">
-        <v>63.22</v>
-      </c>
-      <c r="FB4">
-        <v>70</v>
-      </c>
-      <c r="FC4">
-        <v>67.53</v>
-      </c>
-      <c r="FD4">
-        <v>58.63</v>
-      </c>
-      <c r="FE4">
-        <v>69.2</v>
-      </c>
-      <c r="FF4">
-        <v>67.05</v>
-      </c>
-      <c r="FG4">
-        <v>60.92</v>
-      </c>
-      <c r="FH4">
-        <v>65.349999999999994</v>
-      </c>
-      <c r="FI4">
-        <v>68.84</v>
-      </c>
-      <c r="FJ4">
-        <v>59.64</v>
-      </c>
-      <c r="FK4">
-        <v>56.57</v>
-      </c>
-      <c r="FL4">
+      <c r="KA4">
+        <v>63.8</v>
+      </c>
+      <c r="KB4">
+        <v>61.37</v>
+      </c>
+      <c r="KC4">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="KD4">
+        <v>61.66</v>
+      </c>
+      <c r="KE4">
+        <v>66.86</v>
+      </c>
+      <c r="KF4">
+        <v>63.98</v>
+      </c>
+      <c r="KG4">
+        <v>51.12</v>
+      </c>
+      <c r="KH4">
+        <v>60.42</v>
+      </c>
+      <c r="KI4">
+        <v>60.4</v>
+      </c>
+      <c r="KJ4">
+        <v>58.89</v>
+      </c>
+      <c r="KK4">
         <v>64.03</v>
       </c>
-      <c r="FM4">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="FN4">
-        <v>69.78</v>
-      </c>
-      <c r="FO4">
-        <v>71.58</v>
-      </c>
-      <c r="FP4">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="FQ4">
-        <v>66.489999999999995</v>
-      </c>
-      <c r="FR4">
-        <v>58.72</v>
-      </c>
-      <c r="FS4">
-        <v>72.2</v>
-      </c>
-      <c r="FT4">
-        <v>70.849999999999994</v>
-      </c>
-      <c r="FU4">
-        <v>73.180000000000007</v>
-      </c>
-      <c r="FV4">
-        <v>73.19</v>
-      </c>
-      <c r="FW4">
-        <v>73.62</v>
-      </c>
-      <c r="FX4">
-        <v>66.61</v>
-      </c>
-      <c r="FY4">
-        <v>63.85</v>
-      </c>
-      <c r="FZ4">
-        <v>72.510000000000005</v>
-      </c>
-      <c r="GA4">
-        <v>72.290000000000006</v>
-      </c>
-      <c r="GB4">
-        <v>69.95</v>
-      </c>
-      <c r="GC4">
-        <v>69.540000000000006</v>
-      </c>
-      <c r="GD4">
-        <v>74.03</v>
-      </c>
-      <c r="GE4">
-        <v>65.42</v>
-      </c>
-      <c r="GF4">
-        <v>53.68</v>
-      </c>
-      <c r="GG4">
-        <v>66.63</v>
-      </c>
-      <c r="GH4">
-        <v>67.44</v>
-      </c>
-      <c r="GI4">
-        <v>62.85</v>
-      </c>
-      <c r="GJ4">
-        <v>66.05</v>
-      </c>
-      <c r="GK4">
-        <v>70.41</v>
-      </c>
-      <c r="GL4">
-        <v>63.56</v>
-      </c>
-      <c r="GM4">
-        <v>55.06</v>
-      </c>
-      <c r="GN4">
-        <v>64.19</v>
-      </c>
-      <c r="GO4">
-        <v>63.81</v>
-      </c>
-      <c r="GP4">
-        <v>56.69</v>
-      </c>
-      <c r="GQ4">
-        <v>61.82</v>
-      </c>
-      <c r="GR4">
-        <v>62.1</v>
-      </c>
-      <c r="GS4">
-        <v>61.24</v>
-      </c>
-      <c r="GT4">
-        <v>51.65</v>
-      </c>
-      <c r="GU4">
-        <v>61.99</v>
-      </c>
-      <c r="GV4">
-        <v>62.47</v>
-      </c>
-      <c r="GW4">
-        <v>59.38</v>
-      </c>
-      <c r="GX4">
-        <v>58.49</v>
-      </c>
-      <c r="GY4">
-        <v>57.9</v>
-      </c>
-      <c r="GZ4">
-        <v>55.81</v>
-      </c>
-      <c r="HA4">
-        <v>53.15</v>
-      </c>
-      <c r="HB4">
-        <v>62.78</v>
-      </c>
-      <c r="HC4">
-        <v>53.09</v>
-      </c>
-      <c r="HD4">
-        <v>62.78</v>
-      </c>
-      <c r="HE4">
-        <v>58.35</v>
-      </c>
-      <c r="HF4">
-        <v>59.55</v>
-      </c>
-      <c r="HG4">
-        <v>57.47</v>
-      </c>
-      <c r="HH4">
-        <v>53.31</v>
-      </c>
-      <c r="HI4">
-        <v>60.71</v>
-      </c>
-      <c r="HJ4">
-        <v>62.32</v>
-      </c>
-      <c r="HK4">
-        <v>60.48</v>
-      </c>
-      <c r="HL4">
-        <v>58.88</v>
-      </c>
-      <c r="HM4">
-        <v>59.28</v>
-      </c>
-      <c r="HN4">
-        <v>53.37</v>
-      </c>
-      <c r="HO4">
-        <v>52.64</v>
-      </c>
-      <c r="HP4">
-        <v>65.75</v>
-      </c>
-      <c r="HQ4">
-        <v>63.94</v>
-      </c>
-      <c r="HR4">
-        <v>60.71</v>
-      </c>
-      <c r="HS4">
-        <v>62.92</v>
-      </c>
-      <c r="HT4">
-        <v>67.209999999999994</v>
-      </c>
-      <c r="HU4">
-        <v>60.27</v>
-      </c>
-      <c r="HV4">
-        <v>51.55</v>
-      </c>
-      <c r="HW4">
-        <v>63.96</v>
-      </c>
-      <c r="HX4">
-        <v>62.27</v>
-      </c>
-      <c r="HY4">
-        <v>67.42</v>
-      </c>
-      <c r="HZ4">
-        <v>61.94</v>
-      </c>
-      <c r="IA4">
-        <v>65.88</v>
-      </c>
-      <c r="IB4">
-        <v>57.12</v>
-      </c>
-      <c r="IC4">
-        <v>51.61</v>
-      </c>
-      <c r="ID4">
-        <v>58.43</v>
-      </c>
-      <c r="IE4">
-        <v>62.17</v>
-      </c>
-      <c r="IF4">
-        <v>56.5</v>
-      </c>
-      <c r="IG4">
-        <v>57.98</v>
-      </c>
-      <c r="IH4">
-        <v>65.64</v>
-      </c>
-      <c r="II4">
-        <v>61.91</v>
-      </c>
-      <c r="IJ4">
-        <v>51.84</v>
-      </c>
-      <c r="IK4">
-        <v>56.76</v>
-      </c>
-      <c r="IL4">
-        <v>56.02</v>
-      </c>
-      <c r="IM4">
-        <v>56.63</v>
-      </c>
-      <c r="IN4">
-        <v>54.46</v>
-      </c>
-      <c r="IO4">
-        <v>59.81</v>
-      </c>
-      <c r="IP4">
-        <v>56.56</v>
-      </c>
-      <c r="IQ4">
-        <v>48.08</v>
-      </c>
-      <c r="IR4">
-        <v>60.39</v>
-      </c>
-      <c r="IS4">
-        <v>54.71</v>
-      </c>
-      <c r="IT4">
-        <v>60.39</v>
-      </c>
-      <c r="IU4">
-        <v>58.1</v>
-      </c>
-      <c r="IV4">
-        <v>62.89</v>
-      </c>
-      <c r="IW4">
-        <v>57.15</v>
-      </c>
-      <c r="IX4">
-        <v>49.82</v>
-      </c>
-      <c r="IY4">
-        <v>59.93</v>
-      </c>
-      <c r="IZ4">
-        <v>60.83</v>
-      </c>
-      <c r="JA4">
-        <v>55.95</v>
-      </c>
-      <c r="JB4">
-        <v>60.57</v>
-      </c>
-      <c r="JC4">
-        <v>64.14</v>
-      </c>
-      <c r="JD4">
-        <v>55.11</v>
-      </c>
-      <c r="JE4">
-        <v>49.98</v>
-      </c>
-      <c r="JF4">
-        <v>59.98</v>
-      </c>
-      <c r="JG4">
-        <v>57.08</v>
-      </c>
-      <c r="JH4">
-        <v>60.6</v>
-      </c>
-      <c r="JI4">
-        <v>56.86</v>
-      </c>
-      <c r="JJ4">
-        <v>58.16</v>
-      </c>
-      <c r="JK4">
-        <v>56.12</v>
-      </c>
-      <c r="JL4">
-        <v>50.31</v>
-      </c>
-      <c r="JM4">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="JN4">
-        <v>59.62</v>
-      </c>
-      <c r="JO4">
-        <v>60.75</v>
-      </c>
-      <c r="JP4">
-        <v>59.49</v>
-      </c>
-      <c r="JQ4">
-        <v>65.760000000000005</v>
-      </c>
-      <c r="JR4">
-        <v>60.44</v>
-      </c>
-      <c r="JS4">
-        <v>46.18</v>
-      </c>
-      <c r="JT4">
-        <v>57.06</v>
-      </c>
-      <c r="JU4">
-        <v>57.56</v>
-      </c>
-      <c r="JV4">
-        <v>60.84</v>
-      </c>
-      <c r="JW4">
-        <v>65.83</v>
-      </c>
-      <c r="JX4">
-        <v>61.49</v>
-      </c>
-      <c r="JY4">
-        <v>66.89</v>
-      </c>
-      <c r="JZ4">
-        <v>52.7</v>
-      </c>
-      <c r="KA4">
-        <v>61.54</v>
-      </c>
-      <c r="KB4">
-        <v>66.040000000000006</v>
-      </c>
-      <c r="KC4">
-        <v>63.83</v>
-      </c>
-      <c r="KD4">
-        <v>61.72</v>
-      </c>
-      <c r="KE4">
-        <v>65.989999999999995</v>
-      </c>
-      <c r="KF4">
-        <v>56.97</v>
-      </c>
-      <c r="KG4">
-        <v>48.29</v>
-      </c>
-      <c r="KH4">
-        <v>68.14</v>
-      </c>
-      <c r="KI4">
-        <v>62.74</v>
-      </c>
-      <c r="KJ4">
-        <v>65.06</v>
-      </c>
-      <c r="KK4">
-        <v>54.05</v>
-      </c>
       <c r="KL4">
-        <v>64.17</v>
+        <v>69.11</v>
       </c>
       <c r="KM4">
-        <v>58.16</v>
-      </c>
-      <c r="KN4">
-        <v>48.78</v>
-      </c>
-      <c r="KO4">
-        <v>64.13</v>
-      </c>
-      <c r="KP4">
-        <v>58.52</v>
-      </c>
-      <c r="KQ4">
-        <v>58.93</v>
-      </c>
-      <c r="KR4">
-        <v>59.67</v>
-      </c>
-      <c r="KS4">
-        <v>61.96</v>
-      </c>
-      <c r="KT4">
-        <v>60.73</v>
-      </c>
-      <c r="KU4">
-        <v>52.66</v>
-      </c>
-      <c r="KV4">
-        <v>67.3</v>
-      </c>
-      <c r="KW4">
-        <v>60.78</v>
+        <v>64.31</v>
       </c>
     </row>
-    <row r="5" spans="1:309" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:299" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -4169,904 +4040,874 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>106.52</v>
+        <v>101.59</v>
       </c>
       <c r="I5">
-        <v>101.87</v>
+        <v>104.05</v>
       </c>
       <c r="J5">
-        <v>100.82</v>
+        <v>97.69</v>
       </c>
       <c r="K5">
-        <v>105.16</v>
+        <v>115.19</v>
       </c>
       <c r="L5">
-        <v>91.88</v>
+        <v>108.1</v>
       </c>
       <c r="M5">
-        <v>76.41</v>
+        <v>92.83</v>
       </c>
       <c r="N5">
-        <v>93.08</v>
+        <v>98.47</v>
       </c>
       <c r="O5">
-        <v>98.96</v>
+        <v>108.29</v>
       </c>
       <c r="P5">
-        <v>104.56</v>
+        <v>114</v>
       </c>
       <c r="Q5">
-        <v>99.17</v>
+        <v>113.35</v>
       </c>
       <c r="R5">
-        <v>104.23</v>
+        <v>122.65</v>
       </c>
       <c r="S5">
-        <v>91.12</v>
+        <v>112.84</v>
       </c>
       <c r="T5">
-        <v>72</v>
+        <v>90.13</v>
       </c>
       <c r="U5">
-        <v>99.23</v>
+        <v>107.83</v>
       </c>
       <c r="V5">
-        <v>99.69</v>
+        <v>104.67</v>
       </c>
       <c r="W5">
-        <v>102.22</v>
+        <v>108.54</v>
       </c>
       <c r="X5">
-        <v>102.26</v>
+        <v>110.47</v>
       </c>
       <c r="Y5">
-        <v>107.84</v>
+        <v>122.26</v>
       </c>
       <c r="Z5">
-        <v>93.76</v>
+        <v>111.39</v>
       </c>
       <c r="AA5">
-        <v>71.58</v>
+        <v>87.44</v>
       </c>
       <c r="AB5">
-        <v>97.06</v>
+        <v>103.25</v>
       </c>
       <c r="AC5">
-        <v>100.53</v>
+        <v>106.6</v>
       </c>
       <c r="AD5">
-        <v>100.89</v>
+        <v>108.83</v>
       </c>
       <c r="AE5">
-        <v>98.64</v>
+        <v>112.99</v>
       </c>
       <c r="AF5">
-        <v>109.81</v>
+        <v>125.9</v>
       </c>
       <c r="AG5">
-        <v>99.8</v>
+        <v>121.33</v>
       </c>
       <c r="AH5">
-        <v>75.87</v>
+        <v>90.89</v>
       </c>
       <c r="AI5">
-        <v>96.51</v>
+        <v>108.49</v>
       </c>
       <c r="AJ5">
-        <v>101.08</v>
+        <v>111.13</v>
       </c>
       <c r="AK5">
-        <v>106.45</v>
+        <v>112.76</v>
       </c>
       <c r="AL5">
-        <v>105.28</v>
+        <v>115.84</v>
       </c>
       <c r="AM5">
-        <v>110.02</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="AN5">
-        <v>94.05</v>
+        <v>116.41</v>
       </c>
       <c r="AO5">
-        <v>79.67</v>
+        <v>99.89</v>
       </c>
       <c r="AP5">
-        <v>97.86</v>
+        <v>101.12</v>
       </c>
       <c r="AQ5">
-        <v>103.87</v>
+        <v>111.35</v>
       </c>
       <c r="AR5">
-        <v>104.89</v>
+        <v>113.44</v>
       </c>
       <c r="AS5">
-        <v>104.44</v>
+        <v>116.27</v>
       </c>
       <c r="AT5">
-        <v>112</v>
+        <v>129.56</v>
       </c>
       <c r="AU5">
-        <v>91.85</v>
+        <v>120.02</v>
       </c>
       <c r="AV5">
-        <v>85.49</v>
+        <v>98.3</v>
       </c>
       <c r="AW5">
-        <v>102.84</v>
+        <v>108.15</v>
       </c>
       <c r="AX5">
-        <v>110.35</v>
+        <v>109.17</v>
       </c>
       <c r="AY5">
-        <v>103.18</v>
+        <v>113.6</v>
       </c>
       <c r="AZ5">
-        <v>100.09</v>
+        <v>114.74</v>
       </c>
       <c r="BA5">
-        <v>109.35</v>
+        <v>123.34</v>
       </c>
       <c r="BB5">
-        <v>102.76</v>
+        <v>110.45</v>
       </c>
       <c r="BC5">
-        <v>82.27</v>
+        <v>88.94</v>
       </c>
       <c r="BD5">
-        <v>103.69</v>
+        <v>99.32</v>
       </c>
       <c r="BE5">
-        <v>105.7</v>
+        <v>103.16</v>
       </c>
       <c r="BF5">
-        <v>105.88</v>
+        <v>107.46</v>
       </c>
       <c r="BG5">
-        <v>105.23</v>
+        <v>104.42</v>
       </c>
       <c r="BH5">
-        <v>117.88</v>
+        <v>116.29</v>
       </c>
       <c r="BI5">
-        <v>102.6</v>
+        <v>93.85</v>
       </c>
       <c r="BJ5">
-        <v>80.260000000000005</v>
+        <v>78.34</v>
       </c>
       <c r="BK5">
-        <v>100.98</v>
+        <v>95.86</v>
       </c>
       <c r="BL5">
-        <v>96.33</v>
+        <v>94.8</v>
       </c>
       <c r="BM5">
-        <v>85.38</v>
+        <v>91.52</v>
       </c>
       <c r="BN5">
-        <v>82.61</v>
+        <v>80.45</v>
       </c>
       <c r="BO5">
-        <v>81.97</v>
+        <v>79.75</v>
       </c>
       <c r="BP5">
-        <v>77.569999999999993</v>
+        <v>49.01</v>
       </c>
       <c r="BQ5">
-        <v>63.75</v>
+        <v>42.38</v>
       </c>
       <c r="BR5">
-        <v>83.36</v>
+        <v>43.54</v>
       </c>
       <c r="BS5">
-        <v>68.849999999999994</v>
+        <v>28.09</v>
       </c>
       <c r="BT5">
-        <v>55.34</v>
+        <v>26.75</v>
       </c>
       <c r="BU5">
-        <v>56.57</v>
+        <v>27.13</v>
       </c>
       <c r="BV5">
-        <v>55.44</v>
+        <v>26.78</v>
       </c>
       <c r="BW5">
-        <v>47.82</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="BX5">
-        <v>40.340000000000003</v>
+        <v>21.62</v>
       </c>
       <c r="BY5">
-        <v>53.01</v>
+        <v>24.92</v>
       </c>
       <c r="BZ5">
-        <v>50.59</v>
+        <v>22.92</v>
       </c>
       <c r="CA5">
-        <v>48.96</v>
+        <v>23.28</v>
       </c>
       <c r="CB5">
-        <v>49.49</v>
+        <v>23.78</v>
       </c>
       <c r="CC5">
-        <v>48.28</v>
+        <v>21.86</v>
       </c>
       <c r="CD5">
-        <v>42.99</v>
+        <v>15.46</v>
       </c>
       <c r="CE5">
-        <v>39.71</v>
+        <v>17.89</v>
       </c>
       <c r="CF5">
-        <v>47.74</v>
+        <v>21.95</v>
       </c>
       <c r="CG5">
-        <v>42.49</v>
+        <v>22.88</v>
       </c>
       <c r="CH5">
-        <v>42.08</v>
+        <v>22.52</v>
       </c>
       <c r="CI5">
-        <v>40.69</v>
+        <v>21.29</v>
       </c>
       <c r="CJ5">
-        <v>41.45</v>
+        <v>22.66</v>
       </c>
       <c r="CK5">
-        <v>40.21</v>
+        <v>14.8</v>
       </c>
       <c r="CL5">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="CM5">
+        <v>19.14</v>
+      </c>
+      <c r="CN5">
+        <v>21.05</v>
+      </c>
+      <c r="CO5">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="CP5">
+        <v>21.28</v>
+      </c>
+      <c r="CQ5">
+        <v>19.61</v>
+      </c>
+      <c r="CR5">
+        <v>14.89</v>
+      </c>
+      <c r="CS5">
+        <v>15.92</v>
+      </c>
+      <c r="CT5">
+        <v>19.97</v>
+      </c>
+      <c r="CU5">
+        <v>19.16</v>
+      </c>
+      <c r="CV5">
+        <v>23.26</v>
+      </c>
+      <c r="CW5">
+        <v>21.01</v>
+      </c>
+      <c r="CX5">
+        <v>24.66</v>
+      </c>
+      <c r="CY5">
+        <v>14.62</v>
+      </c>
+      <c r="CZ5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="DA5">
+        <v>19.63</v>
+      </c>
+      <c r="DB5">
+        <v>19.62</v>
+      </c>
+      <c r="DC5">
+        <v>20.46</v>
+      </c>
+      <c r="DD5">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="DE5">
+        <v>21.32</v>
+      </c>
+      <c r="DF5">
+        <v>15.44</v>
+      </c>
+      <c r="DG5">
+        <v>17.05</v>
+      </c>
+      <c r="DH5">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="DI5">
+        <v>21.23</v>
+      </c>
+      <c r="DJ5">
+        <v>21.39</v>
+      </c>
+      <c r="DK5">
+        <v>21.31</v>
+      </c>
+      <c r="DL5">
+        <v>22.4</v>
+      </c>
+      <c r="DM5">
+        <v>16.75</v>
+      </c>
+      <c r="DN5">
+        <v>21.17</v>
+      </c>
+      <c r="DO5">
+        <v>22.91</v>
+      </c>
+      <c r="DP5">
+        <v>22.92</v>
+      </c>
+      <c r="DQ5">
+        <v>23.03</v>
+      </c>
+      <c r="DR5">
+        <v>23.45</v>
+      </c>
+      <c r="DS5">
+        <v>24.06</v>
+      </c>
+      <c r="DT5">
+        <v>22.7</v>
+      </c>
+      <c r="DU5">
+        <v>18.61</v>
+      </c>
+      <c r="DX5">
+        <v>22.42</v>
+      </c>
+      <c r="DY5">
+        <v>22.81</v>
+      </c>
+      <c r="DZ5">
+        <v>24.4</v>
+      </c>
+      <c r="EA5">
+        <v>19.21</v>
+      </c>
+      <c r="EB5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="EC5">
+        <v>24.1</v>
+      </c>
+      <c r="ED5">
+        <v>19.87</v>
+      </c>
+      <c r="EE5">
+        <v>23.3</v>
+      </c>
+      <c r="EF5">
+        <v>20.82</v>
+      </c>
+      <c r="EG5">
+        <v>24.93</v>
+      </c>
+      <c r="EH5">
+        <v>20</v>
+      </c>
+      <c r="EI5">
+        <v>22.6</v>
+      </c>
+      <c r="EJ5">
+        <v>25.55</v>
+      </c>
+      <c r="EK5">
+        <v>27.53</v>
+      </c>
+      <c r="EL5">
+        <v>27.44</v>
+      </c>
+      <c r="EM5">
+        <v>26.77</v>
+      </c>
+      <c r="EN5">
+        <v>27.35</v>
+      </c>
+      <c r="EO5">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="EP5">
+        <v>22</v>
+      </c>
+      <c r="EQ5">
+        <v>27.64</v>
+      </c>
+      <c r="ER5">
+        <v>26.8</v>
+      </c>
+      <c r="ES5">
+        <v>30.03</v>
+      </c>
+      <c r="ET5">
+        <v>27.13</v>
+      </c>
+      <c r="EU5">
+        <v>28.01</v>
+      </c>
+      <c r="EV5">
+        <v>22.91</v>
+      </c>
+      <c r="EW5">
+        <v>25.2</v>
+      </c>
+      <c r="EX5">
+        <v>30.06</v>
+      </c>
+      <c r="EY5">
+        <v>30.61</v>
+      </c>
+      <c r="EZ5">
+        <v>30.82</v>
+      </c>
+      <c r="FA5">
+        <v>31.27</v>
+      </c>
+      <c r="FB5">
+        <v>31.68</v>
+      </c>
+      <c r="FC5">
+        <v>26.75</v>
+      </c>
+      <c r="FD5">
+        <v>24.78</v>
+      </c>
+      <c r="FE5">
+        <v>32.5</v>
+      </c>
+      <c r="FF5">
+        <v>33.25</v>
+      </c>
+      <c r="FG5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="FH5">
+        <v>31.22</v>
+      </c>
+      <c r="FI5">
+        <v>34.65</v>
+      </c>
+      <c r="FJ5">
+        <v>26.86</v>
+      </c>
+      <c r="FK5">
+        <v>26.47</v>
+      </c>
+      <c r="FL5">
+        <v>34.92</v>
+      </c>
+      <c r="FM5">
+        <v>33.35</v>
+      </c>
+      <c r="FN5">
+        <v>34.08</v>
+      </c>
+      <c r="FO5">
+        <v>29.96</v>
+      </c>
+      <c r="FP5">
+        <v>31.82</v>
+      </c>
+      <c r="FQ5">
+        <v>28.32</v>
+      </c>
+      <c r="FR5">
+        <v>25.79</v>
+      </c>
+      <c r="FS5">
+        <v>34.1</v>
+      </c>
+      <c r="FT5">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="FU5">
+        <v>36.22</v>
+      </c>
+      <c r="FV5">
+        <v>35.65</v>
+      </c>
+      <c r="FW5">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="FX5">
+        <v>25.03</v>
+      </c>
+      <c r="FY5">
+        <v>29.14</v>
+      </c>
+      <c r="FZ5">
+        <v>34.33</v>
+      </c>
+      <c r="GA5">
+        <v>36.17</v>
+      </c>
+      <c r="GB5">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="GC5">
+        <v>35.68</v>
+      </c>
+      <c r="GD5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="GE5">
+        <v>29.77</v>
+      </c>
+      <c r="GF5">
+        <v>31.46</v>
+      </c>
+      <c r="GG5">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="GH5">
+        <v>34.9</v>
+      </c>
+      <c r="GI5">
+        <v>34.51</v>
+      </c>
+      <c r="GJ5">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="GK5">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="GL5">
+        <v>28.05</v>
+      </c>
+      <c r="GM5">
+        <v>29.2</v>
+      </c>
+      <c r="GN5">
+        <v>28.98</v>
+      </c>
+      <c r="GO5">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="GP5">
+        <v>34.35</v>
+      </c>
+      <c r="GQ5">
+        <v>31.15</v>
+      </c>
+      <c r="GR5">
+        <v>34</v>
+      </c>
+      <c r="GS5">
+        <v>29.19</v>
+      </c>
+      <c r="GT5">
+        <v>30.46</v>
+      </c>
+      <c r="GU5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="GV5">
+        <v>35.07</v>
+      </c>
+      <c r="GW5">
+        <v>34.71</v>
+      </c>
+      <c r="GX5">
+        <v>34.57</v>
+      </c>
+      <c r="GY5">
+        <v>34.76</v>
+      </c>
+      <c r="GZ5">
+        <v>29.71</v>
+      </c>
+      <c r="HA5">
+        <v>29.87</v>
+      </c>
+      <c r="HB5">
+        <v>35.15</v>
+      </c>
+      <c r="HC5">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="HD5">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="HE5">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="HF5">
+        <v>36.21</v>
+      </c>
+      <c r="HG5">
+        <v>29.86</v>
+      </c>
+      <c r="HH5">
+        <v>31.27</v>
+      </c>
+      <c r="HI5">
+        <v>34.9</v>
+      </c>
+      <c r="HJ5">
+        <v>34.11</v>
+      </c>
+      <c r="HK5">
+        <v>35.57</v>
+      </c>
+      <c r="HL5">
+        <v>35.43</v>
+      </c>
+      <c r="HM5">
+        <v>38.35</v>
+      </c>
+      <c r="HN5">
+        <v>35.47</v>
+      </c>
+      <c r="HO5">
+        <v>30.52</v>
+      </c>
+      <c r="HP5">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="HQ5">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="HR5">
+        <v>35.9</v>
+      </c>
+      <c r="HS5">
+        <v>34.75</v>
+      </c>
+      <c r="HT5">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="HU5">
+        <v>32.25</v>
+      </c>
+      <c r="HV5">
+        <v>30.96</v>
+      </c>
+      <c r="HW5">
+        <v>35.19</v>
+      </c>
+      <c r="HX5">
+        <v>34.92</v>
+      </c>
+      <c r="HY5">
+        <v>35.07</v>
+      </c>
+      <c r="HZ5">
+        <v>34.54</v>
+      </c>
+      <c r="IA5">
+        <v>36.68</v>
+      </c>
+      <c r="IB5">
+        <v>30.77</v>
+      </c>
+      <c r="IC5">
+        <v>31.84</v>
+      </c>
+      <c r="ID5">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="IE5">
+        <v>34.39</v>
+      </c>
+      <c r="IF5">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="IG5">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="IH5">
+        <v>40.35</v>
+      </c>
+      <c r="II5">
+        <v>34.71</v>
+      </c>
+      <c r="IJ5">
+        <v>33.04</v>
+      </c>
+      <c r="IK5">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="IL5">
+        <v>33.76</v>
+      </c>
+      <c r="IM5">
+        <v>30.04</v>
+      </c>
+      <c r="IN5">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="IO5">
+        <v>33.96</v>
+      </c>
+      <c r="IP5">
+        <v>29.93</v>
+      </c>
+      <c r="IQ5">
+        <v>28.27</v>
+      </c>
+      <c r="IR5">
+        <v>31.47</v>
+      </c>
+      <c r="IS5">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="IT5">
+        <v>35.33</v>
+      </c>
+      <c r="IU5">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="IV5">
+        <v>39.01</v>
+      </c>
+      <c r="IW5">
+        <v>36.42</v>
+      </c>
+      <c r="IX5">
+        <v>30.79</v>
+      </c>
+      <c r="IY5">
+        <v>33.97</v>
+      </c>
+      <c r="IZ5">
+        <v>31.98</v>
+      </c>
+      <c r="JA5">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="JB5">
+        <v>33.5</v>
+      </c>
+      <c r="JC5">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="JD5">
+        <v>35.94</v>
+      </c>
+      <c r="JE5">
+        <v>31.21</v>
+      </c>
+      <c r="JF5">
+        <v>32.83</v>
+      </c>
+      <c r="JG5">
+        <v>34.15</v>
+      </c>
+      <c r="JH5">
+        <v>34.56</v>
+      </c>
+      <c r="JI5">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="JJ5">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="JK5">
+        <v>36.44</v>
+      </c>
+      <c r="JL5">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="JM5">
+        <v>34.83</v>
+      </c>
+      <c r="JN5">
+        <v>32.64</v>
+      </c>
+      <c r="JO5">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="JP5">
+        <v>35.01</v>
+      </c>
+      <c r="JQ5">
+        <v>39.29</v>
+      </c>
+      <c r="JR5">
+        <v>36.33</v>
+      </c>
+      <c r="JS5">
+        <v>35.44</v>
+      </c>
+      <c r="JT5">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="JU5">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="JV5">
+        <v>37.35</v>
+      </c>
+      <c r="JW5">
+        <v>37.83</v>
+      </c>
+      <c r="JX5">
+        <v>42.93</v>
+      </c>
+      <c r="JY5">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="JZ5">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="KA5">
+        <v>36.25</v>
+      </c>
+      <c r="KB5">
+        <v>37.58</v>
+      </c>
+      <c r="KC5">
         <v>36.15</v>
       </c>
-      <c r="CM5">
-        <v>42.08</v>
-      </c>
-      <c r="CN5">
-        <v>40.64</v>
-      </c>
-      <c r="CO5">
-        <v>39.22</v>
-      </c>
-      <c r="CP5">
-        <v>41.84</v>
-      </c>
-      <c r="CQ5">
-        <v>42.02</v>
-      </c>
-      <c r="CR5">
-        <v>38.340000000000003</v>
-      </c>
-      <c r="CS5">
-        <v>30.87</v>
-      </c>
-      <c r="CT5">
-        <v>42.3</v>
-      </c>
-      <c r="CU5">
-        <v>37.46</v>
-      </c>
-      <c r="CV5">
-        <v>40.15</v>
-      </c>
-      <c r="CW5">
-        <v>38.44</v>
-      </c>
-      <c r="CX5">
-        <v>42.1</v>
-      </c>
-      <c r="CY5">
-        <v>38.96</v>
-      </c>
-      <c r="CZ5">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="DA5">
-        <v>41.22</v>
-      </c>
-      <c r="DB5">
-        <v>40.44</v>
-      </c>
-      <c r="DC5">
-        <v>40.11</v>
-      </c>
-      <c r="DD5">
-        <v>42.12</v>
-      </c>
-      <c r="DE5">
-        <v>42.94</v>
-      </c>
-      <c r="DF5">
-        <v>37.68</v>
-      </c>
-      <c r="DG5">
-        <v>33.880000000000003</v>
-      </c>
-      <c r="DH5">
-        <v>41.39</v>
-      </c>
-      <c r="DI5">
-        <v>42.56</v>
-      </c>
-      <c r="DJ5">
-        <v>43.76</v>
-      </c>
-      <c r="DK5">
-        <v>42.24</v>
-      </c>
-      <c r="DL5">
-        <v>46.96</v>
-      </c>
-      <c r="DM5">
-        <v>41.55</v>
-      </c>
-      <c r="DN5">
-        <v>36.92</v>
-      </c>
-      <c r="DO5">
-        <v>45.4</v>
-      </c>
-      <c r="DP5">
-        <v>44.19</v>
-      </c>
-      <c r="DQ5">
-        <v>43.64</v>
-      </c>
-      <c r="DR5">
-        <v>44.65</v>
-      </c>
-      <c r="DS5">
-        <v>48.55</v>
-      </c>
-      <c r="DT5">
-        <v>42.92</v>
-      </c>
-      <c r="DU5">
-        <v>35.9</v>
-      </c>
-      <c r="DX5">
-        <v>47.88</v>
-      </c>
-      <c r="DY5">
-        <v>46.64</v>
-      </c>
-      <c r="DZ5">
-        <v>50.63</v>
-      </c>
-      <c r="EA5">
-        <v>47.02</v>
-      </c>
-      <c r="EB5">
-        <v>40.35</v>
-      </c>
-      <c r="EC5">
-        <v>51.13</v>
-      </c>
-      <c r="ED5">
-        <v>51.09</v>
-      </c>
-      <c r="EE5">
-        <v>51.46</v>
-      </c>
-      <c r="EF5">
-        <v>48.82</v>
-      </c>
-      <c r="EG5">
-        <v>56.11</v>
-      </c>
-      <c r="EH5">
-        <v>50.46</v>
-      </c>
-      <c r="EI5">
-        <v>45.41</v>
-      </c>
-      <c r="EJ5">
-        <v>48.73</v>
-      </c>
-      <c r="EK5">
-        <v>54.13</v>
-      </c>
-      <c r="EL5">
-        <v>52.49</v>
-      </c>
-      <c r="EM5">
-        <v>53.07</v>
-      </c>
-      <c r="EN5">
-        <v>56.28</v>
-      </c>
-      <c r="EO5">
-        <v>51.23</v>
-      </c>
-      <c r="EP5">
-        <v>45.22</v>
-      </c>
-      <c r="EQ5">
-        <v>51.17</v>
-      </c>
-      <c r="ER5">
-        <v>52.82</v>
-      </c>
-      <c r="ES5">
-        <v>52.39</v>
-      </c>
-      <c r="ET5">
-        <v>51.03</v>
-      </c>
-      <c r="EU5">
-        <v>53.94</v>
-      </c>
-      <c r="EV5">
-        <v>50.58</v>
-      </c>
-      <c r="EW5">
-        <v>46.53</v>
-      </c>
-      <c r="EX5">
-        <v>54.79</v>
-      </c>
-      <c r="EY5">
-        <v>54.57</v>
-      </c>
-      <c r="EZ5">
-        <v>55.16</v>
-      </c>
-      <c r="FA5">
-        <v>56.66</v>
-      </c>
-      <c r="FB5">
-        <v>58.3</v>
-      </c>
-      <c r="FC5">
-        <v>55.07</v>
-      </c>
-      <c r="FD5">
-        <v>47.87</v>
-      </c>
-      <c r="FE5">
-        <v>57.18</v>
-      </c>
-      <c r="FF5">
-        <v>55.6</v>
-      </c>
-      <c r="FG5">
-        <v>56.22</v>
-      </c>
-      <c r="FH5">
-        <v>53.33</v>
-      </c>
-      <c r="FI5">
-        <v>56.75</v>
-      </c>
-      <c r="FJ5">
-        <v>51.83</v>
-      </c>
-      <c r="FK5">
-        <v>41.81</v>
-      </c>
-      <c r="FL5">
-        <v>52.81</v>
-      </c>
-      <c r="FM5">
-        <v>55.57</v>
-      </c>
-      <c r="FN5">
-        <v>51.98</v>
-      </c>
-      <c r="FO5">
-        <v>51.74</v>
-      </c>
-      <c r="FP5">
-        <v>54.62</v>
-      </c>
-      <c r="FQ5">
-        <v>48.99</v>
-      </c>
-      <c r="FR5">
-        <v>43.34</v>
-      </c>
-      <c r="FS5">
-        <v>50.44</v>
-      </c>
-      <c r="FT5">
-        <v>50.93</v>
-      </c>
-      <c r="FU5">
-        <v>49.07</v>
-      </c>
-      <c r="FV5">
-        <v>50</v>
-      </c>
-      <c r="FW5">
-        <v>49.99</v>
-      </c>
-      <c r="FX5">
-        <v>42.28</v>
-      </c>
-      <c r="FY5">
-        <v>38.47</v>
-      </c>
-      <c r="FZ5">
-        <v>52.56</v>
-      </c>
-      <c r="GA5">
-        <v>47.54</v>
-      </c>
-      <c r="GB5">
-        <v>49.1</v>
-      </c>
-      <c r="GC5">
-        <v>47.89</v>
-      </c>
-      <c r="GD5">
-        <v>50.17</v>
-      </c>
-      <c r="GE5">
-        <v>46.7</v>
-      </c>
-      <c r="GF5">
-        <v>38.14</v>
-      </c>
-      <c r="GG5">
-        <v>48.56</v>
-      </c>
-      <c r="GH5">
-        <v>49.5</v>
-      </c>
-      <c r="GI5">
-        <v>48.8</v>
-      </c>
-      <c r="GJ5">
-        <v>50.8</v>
-      </c>
-      <c r="GK5">
-        <v>50.55</v>
-      </c>
-      <c r="GL5">
-        <v>47.12</v>
-      </c>
-      <c r="GM5">
-        <v>40.29</v>
-      </c>
-      <c r="GN5">
-        <v>51.32</v>
-      </c>
-      <c r="GO5">
-        <v>50.19</v>
-      </c>
-      <c r="GP5">
-        <v>50.25</v>
-      </c>
-      <c r="GQ5">
-        <v>50.06</v>
-      </c>
-      <c r="GR5">
-        <v>51.61</v>
-      </c>
-      <c r="GS5">
-        <v>46.84</v>
-      </c>
-      <c r="GT5">
-        <v>40.630000000000003</v>
-      </c>
-      <c r="GU5">
-        <v>50.55</v>
-      </c>
-      <c r="GV5">
-        <v>51.41</v>
-      </c>
-      <c r="GW5">
-        <v>52.49</v>
-      </c>
-      <c r="GX5">
-        <v>50.11</v>
-      </c>
-      <c r="GY5">
-        <v>53.42</v>
-      </c>
-      <c r="GZ5">
-        <v>48.72</v>
-      </c>
-      <c r="HA5">
-        <v>40.15</v>
-      </c>
-      <c r="HB5">
-        <v>52.93</v>
-      </c>
-      <c r="HC5">
-        <v>51.82</v>
-      </c>
-      <c r="HD5">
-        <v>49.07</v>
-      </c>
-      <c r="HE5">
-        <v>47.31</v>
-      </c>
-      <c r="HF5">
-        <v>53.03</v>
-      </c>
-      <c r="HG5">
-        <v>50.09</v>
-      </c>
-      <c r="HH5">
-        <v>41.58</v>
-      </c>
-      <c r="HI5">
-        <v>49.85</v>
-      </c>
-      <c r="HJ5">
-        <v>49.89</v>
-      </c>
-      <c r="HK5">
-        <v>51.46</v>
-      </c>
-      <c r="HL5">
-        <v>50.73</v>
-      </c>
-      <c r="HM5">
-        <v>55.37</v>
-      </c>
-      <c r="HN5">
-        <v>50.32</v>
-      </c>
-      <c r="HO5">
-        <v>45.93</v>
-      </c>
-      <c r="HP5">
-        <v>53.85</v>
-      </c>
-      <c r="HQ5">
-        <v>54.89</v>
-      </c>
-      <c r="HR5">
-        <v>56.35</v>
-      </c>
-      <c r="HS5">
-        <v>55.34</v>
-      </c>
-      <c r="HT5">
-        <v>56.9</v>
-      </c>
-      <c r="HU5">
-        <v>55.3</v>
-      </c>
-      <c r="HV5">
-        <v>45.99</v>
-      </c>
-      <c r="HW5">
-        <v>54.67</v>
-      </c>
-      <c r="HX5">
-        <v>55.4</v>
-      </c>
-      <c r="HY5">
-        <v>53.45</v>
-      </c>
-      <c r="HZ5">
-        <v>55</v>
-      </c>
-      <c r="IA5">
-        <v>58.79</v>
-      </c>
-      <c r="IB5">
-        <v>53.18</v>
-      </c>
-      <c r="IC5">
-        <v>46.34</v>
-      </c>
-      <c r="ID5">
-        <v>56.61</v>
-      </c>
-      <c r="IE5">
-        <v>56.51</v>
-      </c>
-      <c r="IF5">
-        <v>58.62</v>
-      </c>
-      <c r="IG5">
-        <v>58.11</v>
-      </c>
-      <c r="IH5">
-        <v>63.31</v>
-      </c>
-      <c r="II5">
-        <v>54.32</v>
-      </c>
-      <c r="IJ5">
-        <v>46.87</v>
-      </c>
-      <c r="IK5">
-        <v>48.3</v>
-      </c>
-      <c r="IL5">
-        <v>58.61</v>
-      </c>
-      <c r="IM5">
-        <v>58.21</v>
-      </c>
-      <c r="IN5">
-        <v>59.54</v>
-      </c>
-      <c r="IO5">
-        <v>58.94</v>
-      </c>
-      <c r="IP5">
-        <v>61.24</v>
-      </c>
-      <c r="IQ5">
-        <v>49.13</v>
-      </c>
-      <c r="IR5">
-        <v>57.55</v>
-      </c>
-      <c r="IS5">
-        <v>56.08</v>
-      </c>
-      <c r="IT5">
-        <v>63.33</v>
-      </c>
-      <c r="IU5">
-        <v>65.040000000000006</v>
-      </c>
-      <c r="IV5">
-        <v>69.180000000000007</v>
-      </c>
-      <c r="IW5">
-        <v>62.23</v>
-      </c>
-      <c r="IX5">
-        <v>53.72</v>
-      </c>
-      <c r="IY5">
-        <v>61.74</v>
-      </c>
-      <c r="IZ5">
-        <v>61.48</v>
-      </c>
-      <c r="JA5">
-        <v>60.46</v>
-      </c>
-      <c r="JB5">
-        <v>62.08</v>
-      </c>
-      <c r="JC5">
-        <v>63.71</v>
-      </c>
-      <c r="JD5">
-        <v>62.74</v>
-      </c>
-      <c r="JE5">
-        <v>54.07</v>
-      </c>
-      <c r="JF5">
-        <v>63.13</v>
-      </c>
-      <c r="JG5">
-        <v>58.84</v>
-      </c>
-      <c r="JH5">
-        <v>61.35</v>
-      </c>
-      <c r="JI5">
-        <v>63.08</v>
-      </c>
-      <c r="JJ5">
-        <v>64.650000000000006</v>
-      </c>
-      <c r="JK5">
-        <v>61.06</v>
-      </c>
-      <c r="JL5">
-        <v>49.46</v>
-      </c>
-      <c r="JM5">
-        <v>59.69</v>
-      </c>
-      <c r="JN5">
-        <v>59.14</v>
-      </c>
-      <c r="JO5">
-        <v>62.59</v>
-      </c>
-      <c r="JP5">
-        <v>61.72</v>
-      </c>
-      <c r="JQ5">
-        <v>65.56</v>
-      </c>
-      <c r="JR5">
-        <v>61.4</v>
-      </c>
-      <c r="JS5">
-        <v>50.65</v>
-      </c>
-      <c r="JT5">
-        <v>61.31</v>
-      </c>
-      <c r="JU5">
-        <v>63.05</v>
-      </c>
-      <c r="JV5">
-        <v>63.31</v>
-      </c>
-      <c r="JW5">
-        <v>61.75</v>
-      </c>
-      <c r="JX5">
-        <v>65.569999999999993</v>
-      </c>
-      <c r="JY5">
-        <v>63.15</v>
-      </c>
-      <c r="JZ5">
-        <v>52</v>
-      </c>
-      <c r="KA5">
-        <v>63.8</v>
-      </c>
-      <c r="KB5">
-        <v>61.37</v>
-      </c>
-      <c r="KC5">
-        <v>64.180000000000007</v>
-      </c>
       <c r="KD5">
-        <v>61.66</v>
+        <v>36.49</v>
       </c>
       <c r="KE5">
-        <v>66.86</v>
+        <v>41.28</v>
       </c>
       <c r="KF5">
-        <v>63.98</v>
+        <v>37.78</v>
       </c>
       <c r="KG5">
-        <v>51.12</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="KH5">
-        <v>60.42</v>
+        <v>36.39</v>
       </c>
       <c r="KI5">
-        <v>60.4</v>
+        <v>33.69</v>
       </c>
       <c r="KJ5">
-        <v>58.89</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="KK5">
-        <v>64.03</v>
+        <v>36.46</v>
       </c>
       <c r="KL5">
-        <v>69.11</v>
+        <v>42.93</v>
       </c>
       <c r="KM5">
-        <v>64.31</v>
-      </c>
-      <c r="KN5">
-        <v>52.72</v>
-      </c>
-      <c r="KO5">
-        <v>62.59</v>
-      </c>
-      <c r="KP5">
-        <v>61.18</v>
-      </c>
-      <c r="KQ5">
-        <v>59.31</v>
-      </c>
-      <c r="KR5">
-        <v>59.72</v>
-      </c>
-      <c r="KS5">
-        <v>67.989999999999995</v>
-      </c>
-      <c r="KT5">
-        <v>60.38</v>
-      </c>
-      <c r="KU5">
-        <v>49.36</v>
-      </c>
-      <c r="KV5">
-        <v>60.69</v>
-      </c>
-      <c r="KW5">
-        <v>61.92</v>
+        <v>37.49</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F8718-DE55-6549-B358-F758082B7725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469BF49-B44E-7045-A462-CAC74AD9FE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:KM5"/>
+  <dimension ref="A1:LL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:324" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1346,8 +1346,83 @@
       <c r="KM1" s="1">
         <v>44135</v>
       </c>
+      <c r="KN1" s="1">
+        <v>44136</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>44137</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>44138</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>44139</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>44140</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>44141</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>44142</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>44143</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>44144</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>44145</v>
+      </c>
+      <c r="KX1" s="1">
+        <v>44146</v>
+      </c>
+      <c r="KY1" s="1">
+        <v>44147</v>
+      </c>
+      <c r="KZ1" s="1">
+        <v>44148</v>
+      </c>
+      <c r="LA1" s="1">
+        <v>44149</v>
+      </c>
+      <c r="LB1" s="1">
+        <v>44150</v>
+      </c>
+      <c r="LC1" s="1">
+        <v>44151</v>
+      </c>
+      <c r="LD1" s="1">
+        <v>44152</v>
+      </c>
+      <c r="LE1" s="1">
+        <v>44153</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>44154</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>44155</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>44156</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>44157</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>44158</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>44159</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>44160</v>
+      </c>
     </row>
-    <row r="2" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:324" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2236,8 +2311,83 @@
       <c r="KM2">
         <v>64.8</v>
       </c>
+      <c r="KN2">
+        <v>53.51</v>
+      </c>
+      <c r="KO2">
+        <v>63.33</v>
+      </c>
+      <c r="KP2">
+        <v>62.67</v>
+      </c>
+      <c r="KQ2">
+        <v>61.57</v>
+      </c>
+      <c r="KR2">
+        <v>66.55</v>
+      </c>
+      <c r="KS2">
+        <v>69.89</v>
+      </c>
+      <c r="KT2">
+        <v>65.67</v>
+      </c>
+      <c r="KU2">
+        <v>54.18</v>
+      </c>
+      <c r="KV2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="KW2">
+        <v>63.26</v>
+      </c>
+      <c r="KX2">
+        <v>61.31</v>
+      </c>
+      <c r="KY2">
+        <v>59.66</v>
+      </c>
+      <c r="KZ2">
+        <v>67.5</v>
+      </c>
+      <c r="LA2">
+        <v>61.8</v>
+      </c>
+      <c r="LB2">
+        <v>51.2</v>
+      </c>
+      <c r="LC2">
+        <v>60.21</v>
+      </c>
+      <c r="LD2">
+        <v>60.05</v>
+      </c>
+      <c r="LE2">
+        <v>57.63</v>
+      </c>
+      <c r="LF2">
+        <v>61.45</v>
+      </c>
+      <c r="LG2">
+        <v>64.05</v>
+      </c>
+      <c r="LH2">
+        <v>59.22</v>
+      </c>
+      <c r="LI2">
+        <v>48.94</v>
+      </c>
+      <c r="LJ2">
+        <v>62.5</v>
+      </c>
+      <c r="LK2">
+        <v>58.84</v>
+      </c>
+      <c r="LL2">
+        <v>59.18</v>
+      </c>
     </row>
-    <row r="3" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:324" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3129,8 +3279,83 @@
       <c r="KM3">
         <v>62.81</v>
       </c>
+      <c r="KN3">
+        <v>43.1</v>
+      </c>
+      <c r="KO3">
+        <v>47.29</v>
+      </c>
+      <c r="KP3">
+        <v>43.62</v>
+      </c>
+      <c r="KQ3">
+        <v>44.2</v>
+      </c>
+      <c r="KR3">
+        <v>50.18</v>
+      </c>
+      <c r="KS3">
+        <v>58.54</v>
+      </c>
+      <c r="KT3">
+        <v>62.59</v>
+      </c>
+      <c r="KU3">
+        <v>50.02</v>
+      </c>
+      <c r="KV3">
+        <v>49.65</v>
+      </c>
+      <c r="KW3">
+        <v>51.29</v>
+      </c>
+      <c r="KX3">
+        <v>46.52</v>
+      </c>
+      <c r="KY3">
+        <v>46.26</v>
+      </c>
+      <c r="KZ3">
+        <v>55.02</v>
+      </c>
+      <c r="LA3">
+        <v>60.93</v>
+      </c>
+      <c r="LB3">
+        <v>43.98</v>
+      </c>
+      <c r="LC3">
+        <v>47.23</v>
+      </c>
+      <c r="LD3">
+        <v>46.72</v>
+      </c>
+      <c r="LE3">
+        <v>46.02</v>
+      </c>
+      <c r="LF3">
+        <v>47.14</v>
+      </c>
+      <c r="LG3">
+        <v>55.9</v>
+      </c>
+      <c r="LH3">
+        <v>57.45</v>
+      </c>
+      <c r="LI3">
+        <v>43.09</v>
+      </c>
+      <c r="LJ3">
+        <v>45.59</v>
+      </c>
+      <c r="LK3">
+        <v>46.91</v>
+      </c>
+      <c r="LL3">
+        <v>45.05</v>
+      </c>
     </row>
-    <row r="4" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:324" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4019,8 +4244,83 @@
       <c r="KM4">
         <v>64.31</v>
       </c>
+      <c r="KN4">
+        <v>52.72</v>
+      </c>
+      <c r="KO4">
+        <v>62.59</v>
+      </c>
+      <c r="KP4">
+        <v>61.18</v>
+      </c>
+      <c r="KQ4">
+        <v>59.31</v>
+      </c>
+      <c r="KR4">
+        <v>59.72</v>
+      </c>
+      <c r="KS4">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="KT4">
+        <v>60.38</v>
+      </c>
+      <c r="KU4">
+        <v>49.36</v>
+      </c>
+      <c r="KV4">
+        <v>60.69</v>
+      </c>
+      <c r="KW4">
+        <v>61.92</v>
+      </c>
+      <c r="KX4">
+        <v>63.51</v>
+      </c>
+      <c r="KY4">
+        <v>58.57</v>
+      </c>
+      <c r="KZ4">
+        <v>65.27</v>
+      </c>
+      <c r="LA4">
+        <v>59.92</v>
+      </c>
+      <c r="LB4">
+        <v>52.88</v>
+      </c>
+      <c r="LC4">
+        <v>61.1</v>
+      </c>
+      <c r="LD4">
+        <v>62.75</v>
+      </c>
+      <c r="LE4">
+        <v>62.76</v>
+      </c>
+      <c r="LF4">
+        <v>61.12</v>
+      </c>
+      <c r="LG4">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="LH4">
+        <v>61.9</v>
+      </c>
+      <c r="LI4">
+        <v>50.72</v>
+      </c>
+      <c r="LJ4">
+        <v>61.7</v>
+      </c>
+      <c r="LK4">
+        <v>64.41</v>
+      </c>
+      <c r="LL4">
+        <v>62.21</v>
+      </c>
     </row>
-    <row r="5" spans="1:299" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:324" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4908,6 +5208,81 @@
       </c>
       <c r="KM5">
         <v>37.49</v>
+      </c>
+      <c r="KN5">
+        <v>33.06</v>
+      </c>
+      <c r="KO5">
+        <v>35.01</v>
+      </c>
+      <c r="KP5">
+        <v>34.32</v>
+      </c>
+      <c r="KQ5">
+        <v>34.33</v>
+      </c>
+      <c r="KR5">
+        <v>35.78</v>
+      </c>
+      <c r="KS5">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="KT5">
+        <v>34.67</v>
+      </c>
+      <c r="KU5">
+        <v>31.31</v>
+      </c>
+      <c r="KV5">
+        <v>34.04</v>
+      </c>
+      <c r="KW5">
+        <v>32.43</v>
+      </c>
+      <c r="KX5">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="KY5">
+        <v>30.54</v>
+      </c>
+      <c r="KZ5">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="LA5">
+        <v>34.06</v>
+      </c>
+      <c r="LB5">
+        <v>32.57</v>
+      </c>
+      <c r="LC5">
+        <v>35.42</v>
+      </c>
+      <c r="LD5">
+        <v>31.44</v>
+      </c>
+      <c r="LE5">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="LF5">
+        <v>36.35</v>
+      </c>
+      <c r="LG5">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="LH5">
+        <v>31.24</v>
+      </c>
+      <c r="LI5">
+        <v>30.63</v>
+      </c>
+      <c r="LJ5">
+        <v>35.08</v>
+      </c>
+      <c r="LK5">
+        <v>35.89</v>
+      </c>
+      <c r="LL5">
+        <v>34.9</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469BF49-B44E-7045-A462-CAC74AD9FE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF456573-BCBF-B149-87A7-90D721749CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:LL5"/>
+  <dimension ref="A1:LQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:324" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:329" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1421,8 +1421,23 @@
       <c r="LL1" s="1">
         <v>44160</v>
       </c>
+      <c r="LM1" s="1">
+        <v>44161</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>44162</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>44163</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>44164</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>44165</v>
+      </c>
     </row>
-    <row r="2" spans="1:324" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:329" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2386,8 +2401,23 @@
       <c r="LL2">
         <v>59.18</v>
       </c>
+      <c r="LM2">
+        <v>37.71</v>
+      </c>
+      <c r="LN2">
+        <v>54.6</v>
+      </c>
+      <c r="LO2">
+        <v>51.5</v>
+      </c>
+      <c r="LP2">
+        <v>46.27</v>
+      </c>
+      <c r="LQ2">
+        <v>57.71</v>
+      </c>
     </row>
-    <row r="3" spans="1:324" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:329" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3354,8 +3384,23 @@
       <c r="LL3">
         <v>45.05</v>
       </c>
+      <c r="LM3">
+        <v>29.8</v>
+      </c>
+      <c r="LN3">
+        <v>43.9</v>
+      </c>
+      <c r="LO3">
+        <v>46.86</v>
+      </c>
+      <c r="LP3">
+        <v>41</v>
+      </c>
+      <c r="LQ3">
+        <v>39.72</v>
+      </c>
     </row>
-    <row r="4" spans="1:324" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:329" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4319,8 +4364,23 @@
       <c r="LL4">
         <v>62.21</v>
       </c>
+      <c r="LM4">
+        <v>37.08</v>
+      </c>
+      <c r="LN4">
+        <v>57.45</v>
+      </c>
+      <c r="LO4">
+        <v>56.84</v>
+      </c>
+      <c r="LP4">
+        <v>52.89</v>
+      </c>
+      <c r="LQ4">
+        <v>63.26</v>
+      </c>
     </row>
-    <row r="5" spans="1:324" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:329" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5283,6 +5343,21 @@
       </c>
       <c r="LL5">
         <v>34.9</v>
+      </c>
+      <c r="LM5">
+        <v>22.23</v>
+      </c>
+      <c r="LN5">
+        <v>30</v>
+      </c>
+      <c r="LO5">
+        <v>28.43</v>
+      </c>
+      <c r="LP5">
+        <v>25.4</v>
+      </c>
+      <c r="LQ5">
+        <v>32.32</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF456573-BCBF-B149-87A7-90D721749CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C32A08-8A83-094B-AD23-8EE9D3BD2808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:LQ5"/>
+  <dimension ref="A1:MC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:329" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:341" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,8 +1436,44 @@
       <c r="LQ1" s="1">
         <v>44165</v>
       </c>
+      <c r="LR1" s="1">
+        <v>44166</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>44167</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>44168</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>44169</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>44170</v>
+      </c>
+      <c r="LW1" s="1">
+        <v>44171</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>44172</v>
+      </c>
+      <c r="LY1" s="1">
+        <v>44173</v>
+      </c>
+      <c r="LZ1" s="1">
+        <v>44174</v>
+      </c>
+      <c r="MA1" s="1">
+        <v>44175</v>
+      </c>
+      <c r="MB1" s="1">
+        <v>44176</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>44177</v>
+      </c>
     </row>
-    <row r="2" spans="1:329" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:341" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2416,8 +2452,44 @@
       <c r="LQ2">
         <v>57.71</v>
       </c>
+      <c r="LR2">
+        <v>60</v>
+      </c>
+      <c r="LS2">
+        <v>57.87</v>
+      </c>
+      <c r="LT2">
+        <v>57.62</v>
+      </c>
+      <c r="LU2">
+        <v>61.4</v>
+      </c>
+      <c r="LV2">
+        <v>57.16</v>
+      </c>
+      <c r="LW2">
+        <v>47.64</v>
+      </c>
+      <c r="LX2">
+        <v>60.66</v>
+      </c>
+      <c r="LY2">
+        <v>58.97</v>
+      </c>
+      <c r="LZ2">
+        <v>59.2</v>
+      </c>
+      <c r="MA2">
+        <v>59.07</v>
+      </c>
+      <c r="MB2">
+        <v>60.04</v>
+      </c>
+      <c r="MC2">
+        <v>59.21</v>
+      </c>
     </row>
-    <row r="3" spans="1:329" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:341" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3399,8 +3471,44 @@
       <c r="LQ3">
         <v>39.72</v>
       </c>
+      <c r="LR3">
+        <v>44.94</v>
+      </c>
+      <c r="LS3">
+        <v>44.16</v>
+      </c>
+      <c r="LT3">
+        <v>45.75</v>
+      </c>
+      <c r="LU3">
+        <v>48.53</v>
+      </c>
+      <c r="LV3">
+        <v>48.42</v>
+      </c>
+      <c r="LW3">
+        <v>44.62</v>
+      </c>
+      <c r="LX3">
+        <v>44.48</v>
+      </c>
+      <c r="LY3">
+        <v>43.82</v>
+      </c>
+      <c r="LZ3">
+        <v>43.81</v>
+      </c>
+      <c r="MA3">
+        <v>46.79</v>
+      </c>
+      <c r="MB3">
+        <v>53.32</v>
+      </c>
+      <c r="MC3">
+        <v>53.28</v>
+      </c>
     </row>
-    <row r="4" spans="1:329" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:341" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4379,8 +4487,44 @@
       <c r="LQ4">
         <v>63.26</v>
       </c>
+      <c r="LR4">
+        <v>62.65</v>
+      </c>
+      <c r="LS4">
+        <v>61.41</v>
+      </c>
+      <c r="LT4">
+        <v>62.8</v>
+      </c>
+      <c r="LU4">
+        <v>60.66</v>
+      </c>
+      <c r="LV4">
+        <v>58.4</v>
+      </c>
+      <c r="LW4">
+        <v>49.42</v>
+      </c>
+      <c r="LX4">
+        <v>60.38</v>
+      </c>
+      <c r="LY4">
+        <v>60.58</v>
+      </c>
+      <c r="LZ4">
+        <v>60.55</v>
+      </c>
+      <c r="MA4">
+        <v>54.09</v>
+      </c>
+      <c r="MB4">
+        <v>63.32</v>
+      </c>
+      <c r="MC4">
+        <v>59.22</v>
+      </c>
     </row>
-    <row r="5" spans="1:329" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:341" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5358,6 +5502,42 @@
       </c>
       <c r="LQ5">
         <v>32.32</v>
+      </c>
+      <c r="LR5">
+        <v>31.9</v>
+      </c>
+      <c r="LS5">
+        <v>32.47</v>
+      </c>
+      <c r="LT5">
+        <v>31.45</v>
+      </c>
+      <c r="LU5">
+        <v>31.9</v>
+      </c>
+      <c r="LV5">
+        <v>28.83</v>
+      </c>
+      <c r="LW5">
+        <v>23.95</v>
+      </c>
+      <c r="LX5">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="LY5">
+        <v>30.04</v>
+      </c>
+      <c r="LZ5">
+        <v>30.49</v>
+      </c>
+      <c r="MA5">
+        <v>29.06</v>
+      </c>
+      <c r="MB5">
+        <v>29.79</v>
+      </c>
+      <c r="MC5">
+        <v>25.19</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C32A08-8A83-094B-AD23-8EE9D3BD2808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE17A8A-69AA-8A49-AC58-1C3C3CE3DA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:MC5"/>
+  <dimension ref="A1:MH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:341" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1472,8 +1472,23 @@
       <c r="MC1" s="1">
         <v>44177</v>
       </c>
+      <c r="MD1" s="1">
+        <v>44178</v>
+      </c>
+      <c r="ME1" s="1">
+        <v>44179</v>
+      </c>
+      <c r="MF1" s="1">
+        <v>44180</v>
+      </c>
+      <c r="MG1" s="1">
+        <v>44181</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>44182</v>
+      </c>
     </row>
-    <row r="2" spans="1:341" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2488,8 +2503,23 @@
       <c r="MC2">
         <v>59.21</v>
       </c>
+      <c r="MD2">
+        <v>43.11</v>
+      </c>
+      <c r="ME2">
+        <v>58.29</v>
+      </c>
+      <c r="MF2">
+        <v>55.5</v>
+      </c>
+      <c r="MG2">
+        <v>53.85</v>
+      </c>
+      <c r="MH2">
+        <v>56.71</v>
+      </c>
     </row>
-    <row r="3" spans="1:341" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3507,8 +3537,23 @@
       <c r="MC3">
         <v>53.28</v>
       </c>
+      <c r="MD3">
+        <v>46.24</v>
+      </c>
+      <c r="ME3">
+        <v>42.21</v>
+      </c>
+      <c r="MF3">
+        <v>45.59</v>
+      </c>
+      <c r="MG3">
+        <v>36.99</v>
+      </c>
+      <c r="MH3">
+        <v>37.18</v>
+      </c>
     </row>
-    <row r="4" spans="1:341" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4523,8 +4568,23 @@
       <c r="MC4">
         <v>59.22</v>
       </c>
+      <c r="MD4">
+        <v>52.07</v>
+      </c>
+      <c r="ME4">
+        <v>60.35</v>
+      </c>
+      <c r="MF4">
+        <v>61.9</v>
+      </c>
+      <c r="MG4">
+        <v>60.74</v>
+      </c>
+      <c r="MH4">
+        <v>59.07</v>
+      </c>
     </row>
-    <row r="5" spans="1:341" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5538,6 +5598,21 @@
       </c>
       <c r="MC5">
         <v>25.19</v>
+      </c>
+      <c r="MD5">
+        <v>23.18</v>
+      </c>
+      <c r="ME5">
+        <v>32.19</v>
+      </c>
+      <c r="MF5">
+        <v>29.06</v>
+      </c>
+      <c r="MG5">
+        <v>30.1</v>
+      </c>
+      <c r="MH5">
+        <v>29.66</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE17A8A-69AA-8A49-AC58-1C3C3CE3DA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D8791-4763-1040-AAD0-6F778E2AF693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:MH5"/>
+  <dimension ref="A1:MK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:346" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:349" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,8 +1487,17 @@
       <c r="MH1" s="1">
         <v>44182</v>
       </c>
+      <c r="MI1" s="1">
+        <v>44183</v>
+      </c>
+      <c r="MJ1" s="1">
+        <v>44184</v>
+      </c>
+      <c r="MK1" s="1">
+        <v>44185</v>
+      </c>
     </row>
-    <row r="2" spans="1:346" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:349" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2518,8 +2527,17 @@
       <c r="MH2">
         <v>56.71</v>
       </c>
+      <c r="MI2">
+        <v>63.28</v>
+      </c>
+      <c r="MJ2">
+        <v>58.14</v>
+      </c>
+      <c r="MK2">
+        <v>47.57</v>
+      </c>
     </row>
-    <row r="3" spans="1:346" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:349" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3552,8 +3570,17 @@
       <c r="MH3">
         <v>37.18</v>
       </c>
+      <c r="MI3">
+        <v>50.48</v>
+      </c>
+      <c r="MJ3">
+        <v>51.58</v>
+      </c>
+      <c r="MK3">
+        <v>41.36</v>
+      </c>
     </row>
-    <row r="4" spans="1:346" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:349" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4583,8 +4610,17 @@
       <c r="MH4">
         <v>59.07</v>
       </c>
+      <c r="MI4">
+        <v>66.33</v>
+      </c>
+      <c r="MJ4">
+        <v>59.42</v>
+      </c>
+      <c r="MK4">
+        <v>54.56</v>
+      </c>
     </row>
-    <row r="5" spans="1:346" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:349" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5613,6 +5649,15 @@
       </c>
       <c r="MH5">
         <v>29.66</v>
+      </c>
+      <c r="MI5">
+        <v>30.97</v>
+      </c>
+      <c r="MJ5">
+        <v>25.3</v>
+      </c>
+      <c r="MK5">
+        <v>26.47</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D8791-4763-1040-AAD0-6F778E2AF693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7619DE-13E5-1A4F-AF52-19C30A3A1942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:MK5"/>
+  <dimension ref="A1:MQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
@@ -448,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:349" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:355" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1496,8 +1496,26 @@
       <c r="MK1" s="1">
         <v>44185</v>
       </c>
+      <c r="ML1" s="1">
+        <v>44186</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>44187</v>
+      </c>
+      <c r="MN1" s="1">
+        <v>44188</v>
+      </c>
+      <c r="MO1" s="1">
+        <v>44189</v>
+      </c>
+      <c r="MP1" s="1">
+        <v>44190</v>
+      </c>
+      <c r="MQ1" s="1">
+        <v>44191</v>
+      </c>
     </row>
-    <row r="2" spans="1:349" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:355" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2536,8 +2554,26 @@
       <c r="MK2">
         <v>47.57</v>
       </c>
+      <c r="ML2">
+        <v>57.78</v>
+      </c>
+      <c r="MM2">
+        <v>58.4</v>
+      </c>
+      <c r="MN2">
+        <v>56.76</v>
+      </c>
+      <c r="MO2">
+        <v>46.05</v>
+      </c>
+      <c r="MP2">
+        <v>32.53</v>
+      </c>
+      <c r="MQ2">
+        <v>49.55</v>
+      </c>
     </row>
-    <row r="3" spans="1:349" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:355" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3579,8 +3615,26 @@
       <c r="MK3">
         <v>41.36</v>
       </c>
+      <c r="ML3">
+        <v>49.23</v>
+      </c>
+      <c r="MM3">
+        <v>49.14</v>
+      </c>
+      <c r="MN3">
+        <v>49.32</v>
+      </c>
+      <c r="MO3">
+        <v>36.44</v>
+      </c>
+      <c r="MP3">
+        <v>25.17</v>
+      </c>
+      <c r="MQ3">
+        <v>39.07</v>
+      </c>
     </row>
-    <row r="4" spans="1:349" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:355" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4619,8 +4673,26 @@
       <c r="MK4">
         <v>54.56</v>
       </c>
+      <c r="ML4">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="MM4">
+        <v>64.19</v>
+      </c>
+      <c r="MN4">
+        <v>61.49</v>
+      </c>
+      <c r="MO4">
+        <v>47.43</v>
+      </c>
+      <c r="MP4">
+        <v>32.6</v>
+      </c>
+      <c r="MQ4">
+        <v>53.58</v>
+      </c>
     </row>
-    <row r="5" spans="1:349" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:355" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5658,6 +5730,24 @@
       </c>
       <c r="MK5">
         <v>26.47</v>
+      </c>
+      <c r="ML5">
+        <v>28.23</v>
+      </c>
+      <c r="MM5">
+        <v>27.84</v>
+      </c>
+      <c r="MN5">
+        <v>29.53</v>
+      </c>
+      <c r="MO5">
+        <v>24.19</v>
+      </c>
+      <c r="MP5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="MQ5">
+        <v>22.31</v>
       </c>
     </row>
   </sheetData>

--- a/MobilityData.xlsx
+++ b/MobilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamay/Desktop/GitHub Mobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7619DE-13E5-1A4F-AF52-19C30A3A1942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFED1630-7453-924F-BEC1-545AA57CFD62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="1080" windowWidth="27640" windowHeight="16940" xr2:uid="{9E5FCC3A-D560-0F46-B4CF-C81F9FDBD51E}"/>
   </bookViews>
@@ -440,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E792C4-571F-1A4E-85EB-5A0A3912F0D7}">
-  <dimension ref="A1:MQ5"/>
+  <dimension ref="A1:NB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="MQ1" workbookViewId="0">
+      <selection activeCell="NH24" sqref="NH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:355" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:366" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1514,8 +1514,41 @@
       <c r="MQ1" s="1">
         <v>44191</v>
       </c>
+      <c r="MR1" s="1">
+        <v>44192</v>
+      </c>
+      <c r="MS1" s="1">
+        <v>44193</v>
+      </c>
+      <c r="MT1" s="1">
+        <v>44194</v>
+      </c>
+      <c r="MU1" s="1">
+        <v>44195</v>
+      </c>
+      <c r="MV1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="MX1" s="1">
+        <v>44198</v>
+      </c>
+      <c r="MY1" s="1">
+        <v>44199</v>
+      </c>
+      <c r="MZ1" s="1">
+        <v>44200</v>
+      </c>
+      <c r="NA1" s="1">
+        <v>44201</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>44202</v>
+      </c>
     </row>
-    <row r="2" spans="1:355" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:366" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2572,8 +2605,41 @@
       <c r="MQ2">
         <v>49.55</v>
       </c>
+      <c r="MR2">
+        <v>48.46</v>
+      </c>
+      <c r="MS2">
+        <v>61.02</v>
+      </c>
+      <c r="MT2">
+        <v>59.15</v>
+      </c>
+      <c r="MU2">
+        <v>51.9</v>
+      </c>
+      <c r="MV2">
+        <v>45.89</v>
+      </c>
+      <c r="MW2">
+        <v>43.48</v>
+      </c>
+      <c r="MX2">
+        <v>53.79</v>
+      </c>
+      <c r="MY2">
+        <v>46.34</v>
+      </c>
+      <c r="MZ2">
+        <v>57.3</v>
+      </c>
+      <c r="NA2">
+        <v>63.1</v>
+      </c>
+      <c r="NB2">
+        <v>52.49</v>
+      </c>
     </row>
-    <row r="3" spans="1:355" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:366" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3633,8 +3699,41 @@
       <c r="MQ3">
         <v>39.07</v>
       </c>
+      <c r="MR3">
+        <v>38.96</v>
+      </c>
+      <c r="MS3">
+        <v>48.54</v>
+      </c>
+      <c r="MT3">
+        <v>47.5</v>
+      </c>
+      <c r="MU3">
+        <v>47.95</v>
+      </c>
+      <c r="MV3">
+        <v>41.79</v>
+      </c>
+      <c r="MW3">
+        <v>31.83</v>
+      </c>
+      <c r="MX3">
+        <v>45.46</v>
+      </c>
+      <c r="MY3">
+        <v>35.35</v>
+      </c>
+      <c r="MZ3">
+        <v>44.94</v>
+      </c>
+      <c r="NA3">
+        <v>44.17</v>
+      </c>
+      <c r="NB3">
+        <v>42.69</v>
+      </c>
     </row>
-    <row r="4" spans="1:355" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:366" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4691,8 +4790,41 @@
       <c r="MQ4">
         <v>53.58</v>
       </c>
+      <c r="MR4">
+        <v>53.63</v>
+      </c>
+      <c r="MS4">
+        <v>66.7</v>
+      </c>
+      <c r="MT4">
+        <v>65.83</v>
+      </c>
+      <c r="MU4">
+        <v>64.94</v>
+      </c>
+      <c r="MV4">
+        <v>57.36</v>
+      </c>
+      <c r="MW4">
+        <v>50.2</v>
+      </c>
+      <c r="MX4">
+        <v>56.19</v>
+      </c>
+      <c r="MY4">
+        <v>54.99</v>
+      </c>
+      <c r="MZ4">
+        <v>65.8</v>
+      </c>
+      <c r="NA4">
+        <v>67.52</v>
+      </c>
+      <c r="NB4">
+        <v>63.51</v>
+      </c>
     </row>
-    <row r="5" spans="1:355" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:366" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5748,6 +5880,39 @@
       </c>
       <c r="MQ5">
         <v>22.31</v>
+      </c>
+      <c r="MR5">
+        <v>25.07</v>
+      </c>
+      <c r="MS5">
+        <v>28.77</v>
+      </c>
+      <c r="MT5">
+        <v>29.24</v>
+      </c>
+      <c r="MU5">
+        <v>28.61</v>
+      </c>
+      <c r="MV5">
+        <v>25.89</v>
+      </c>
+      <c r="MW5">
+        <v>22.29</v>
+      </c>
+      <c r="MX5">
+        <v>21.92</v>
+      </c>
+      <c r="MY5">
+        <v>24.82</v>
+      </c>
+      <c r="MZ5">
+        <v>28.13</v>
+      </c>
+      <c r="NA5">
+        <v>30.37</v>
+      </c>
+      <c r="NB5">
+        <v>27.93</v>
       </c>
     </row>
   </sheetData>
